--- a/EulerProject11_workbook in Excel.xlsx
+++ b/EulerProject11_workbook in Excel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="15000" windowHeight="4695"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="15000" windowHeight="4695" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -378,8 +378,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AM43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView topLeftCell="R31" workbookViewId="0">
+      <selection activeCell="U43" sqref="U43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -452,71 +452,71 @@
         <v>0</v>
       </c>
       <c r="W1">
-        <f>A1*B1*C1*D1</f>
+        <f t="shared" ref="W1:AM1" si="0">A1*B1*C1*D1</f>
         <v>34144</v>
       </c>
       <c r="X1">
-        <f>B1*C1*D1*E1</f>
+        <f t="shared" si="0"/>
         <v>162184</v>
       </c>
       <c r="Y1">
-        <f>C1*D1*E1*F1</f>
+        <f t="shared" si="0"/>
         <v>1216380</v>
       </c>
       <c r="Z1">
-        <f>D1*E1*F1*G1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AA1">
-        <f>E1*F1*G1*H1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AB1">
-        <f>F1*G1*H1*I1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AC1">
-        <f>G1*H1*I1*J1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AD1">
-        <f>H1*I1*J1*K1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AE1">
-        <f>I1*J1*K1*L1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AF1">
-        <f>J1*K1*L1*M1</f>
+        <f t="shared" si="0"/>
         <v>10500</v>
       </c>
       <c r="AG1">
-        <f>K1*L1*M1*N1</f>
+        <f t="shared" si="0"/>
         <v>10920</v>
       </c>
       <c r="AH1">
-        <f>L1*M1*N1*O1</f>
+        <f t="shared" si="0"/>
         <v>141960</v>
       </c>
       <c r="AI1">
-        <f>M1*N1*O1*P1</f>
+        <f t="shared" si="0"/>
         <v>340704</v>
       </c>
       <c r="AJ1">
-        <f>N1*O1*P1*Q1</f>
+        <f t="shared" si="0"/>
         <v>2433600</v>
       </c>
       <c r="AK1">
-        <f>O1*P1*Q1*R1</f>
+        <f t="shared" si="0"/>
         <v>2402400</v>
       </c>
       <c r="AL1">
-        <f>P1*Q1*R1*S1</f>
+        <f t="shared" si="0"/>
         <v>4204200</v>
       </c>
       <c r="AM1">
-        <f>Q1*R1*S1*T1</f>
+        <f t="shared" si="0"/>
         <v>2802800</v>
       </c>
     </row>
@@ -586,71 +586,71 @@
         <v>48477312</v>
       </c>
       <c r="W2">
-        <f t="shared" ref="W2:W20" si="0">A2*B2*C2*D2</f>
+        <f t="shared" ref="W2:W20" si="1">A2*B2*C2*D2</f>
         <v>9507960</v>
       </c>
       <c r="X2">
-        <f t="shared" ref="X2:X20" si="1">B2*C2*D2*E2</f>
+        <f t="shared" ref="X2:X20" si="2">B2*C2*D2*E2</f>
         <v>3298680</v>
       </c>
       <c r="Y2">
-        <f t="shared" ref="Y2:Y20" si="2">C2*D2*E2*F2</f>
+        <f t="shared" ref="Y2:Y20" si="3">C2*D2*E2*F2</f>
         <v>5452920</v>
       </c>
       <c r="Z2">
-        <f t="shared" ref="Z2:Z20" si="3">D2*E2*F2*G2</f>
+        <f t="shared" ref="Z2:Z20" si="4">D2*E2*F2*G2</f>
         <v>991440</v>
       </c>
       <c r="AA2">
-        <f t="shared" ref="AA2:AA20" si="4">E2*F2*G2*H2</f>
+        <f t="shared" ref="AA2:AA20" si="5">E2*F2*G2*H2</f>
         <v>1412802</v>
       </c>
       <c r="AB2">
-        <f t="shared" ref="AB2:AB20" si="5">F2*G2*H2*I2</f>
+        <f t="shared" ref="AB2:AB20" si="6">F2*G2*H2*I2</f>
         <v>4986360</v>
       </c>
       <c r="AC2">
-        <f t="shared" ref="AC2:AC20" si="6">G2*H2*I2*J2</f>
+        <f t="shared" ref="AC2:AC20" si="7">G2*H2*I2*J2</f>
         <v>5355720</v>
       </c>
       <c r="AD2">
-        <f t="shared" ref="AD2:AD20" si="7">H2*I2*J2*K2</f>
+        <f t="shared" ref="AD2:AD20" si="8">H2*I2*J2*K2</f>
         <v>5058180</v>
       </c>
       <c r="AE2">
-        <f t="shared" ref="AE2:AE20" si="8">I2*J2*K2*L2</f>
+        <f t="shared" ref="AE2:AE20" si="9">I2*J2*K2*L2</f>
         <v>3549600</v>
       </c>
       <c r="AF2">
-        <f t="shared" ref="AF2:AF20" si="9">J2*K2*L2*M2</f>
+        <f t="shared" ref="AF2:AF20" si="10">J2*K2*L2*M2</f>
         <v>5797680</v>
       </c>
       <c r="AG2">
-        <f t="shared" ref="AG2:AG20" si="10">K2*L2*M2*N2</f>
+        <f t="shared" ref="AG2:AG20" si="11">K2*L2*M2*N2</f>
         <v>2865520</v>
       </c>
       <c r="AH2">
-        <f t="shared" ref="AH2:AH20" si="11">L2*M2*N2*O2</f>
+        <f t="shared" ref="AH2:AH20" si="12">L2*M2*N2*O2</f>
         <v>11630640</v>
       </c>
       <c r="AI2">
-        <f t="shared" ref="AI2:AI20" si="12">M2*N2*O2*P2</f>
+        <f t="shared" ref="AI2:AI20" si="13">M2*N2*O2*P2</f>
         <v>13956768</v>
       </c>
       <c r="AJ2">
-        <f t="shared" ref="AJ2:AJ20" si="13">N2*O2*P2*Q2</f>
+        <f t="shared" ref="AJ2:AJ20" si="14">N2*O2*P2*Q2</f>
         <v>569664</v>
       </c>
       <c r="AK2">
-        <f t="shared" ref="AK2:AK20" si="14">O2*P2*Q2*R2</f>
+        <f t="shared" ref="AK2:AK20" si="15">O2*P2*Q2*R2</f>
         <v>741888</v>
       </c>
       <c r="AL2">
-        <f t="shared" ref="AL2:AL20" si="15">P2*Q2*R2*S2</f>
+        <f t="shared" ref="AL2:AL20" si="16">P2*Q2*R2*S2</f>
         <v>666624</v>
       </c>
       <c r="AM2">
-        <f t="shared" ref="AM2:AM20" si="16">Q2*R2*S2*T2</f>
+        <f t="shared" ref="AM2:AM20" si="17">Q2*R2*S2*T2</f>
         <v>0</v>
       </c>
     </row>
@@ -716,71 +716,71 @@
         <v>65</v>
       </c>
       <c r="W3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8981847</v>
       </c>
       <c r="X3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6098785</v>
       </c>
       <c r="Y3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9832735</v>
       </c>
       <c r="Z3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4440590</v>
       </c>
       <c r="AA3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1764070</v>
       </c>
       <c r="AB3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2982882</v>
       </c>
       <c r="AC3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2680818</v>
       </c>
       <c r="AD3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>7659480</v>
       </c>
       <c r="AE3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>17696040</v>
       </c>
       <c r="AF3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>10084840</v>
       </c>
       <c r="AG3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>12499520</v>
       </c>
       <c r="AH3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>9374640</v>
       </c>
       <c r="AI3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>419760</v>
       </c>
       <c r="AJ3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>388080</v>
       </c>
       <c r="AK3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>57330</v>
       </c>
       <c r="AL3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>68796</v>
       </c>
       <c r="AM3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1490580</v>
       </c>
     </row>
@@ -846,71 +846,71 @@
         <v>91</v>
       </c>
       <c r="W4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7953400</v>
       </c>
       <c r="X4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>611800</v>
       </c>
       <c r="Y4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>524400</v>
       </c>
       <c r="Z4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>60720</v>
       </c>
       <c r="AA4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>110880</v>
       </c>
       <c r="AB4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1912680</v>
       </c>
       <c r="AC4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>765072</v>
       </c>
       <c r="AD4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4729536</v>
       </c>
       <c r="AE4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6306048</v>
       </c>
       <c r="AF4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>91392</v>
       </c>
       <c r="AG4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>121856</v>
       </c>
       <c r="AH4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>100352</v>
       </c>
       <c r="AI4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>127232</v>
       </c>
       <c r="AJ4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>4707584</v>
       </c>
       <c r="AK4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>294224</v>
       </c>
       <c r="AL4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>189144</v>
       </c>
       <c r="AM4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>242424</v>
       </c>
     </row>
@@ -976,71 +976,71 @@
         <v>80</v>
       </c>
       <c r="W5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>774752</v>
       </c>
       <c r="X5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1796016</v>
       </c>
       <c r="Y5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3881712</v>
       </c>
       <c r="Z5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>15284241</v>
       </c>
       <c r="AA5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>19159119</v>
       </c>
       <c r="AB5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>15402429</v>
       </c>
       <c r="AC5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>21149604</v>
       </c>
       <c r="AD5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>12085488</v>
       </c>
       <c r="AE5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>7332768</v>
       </c>
       <c r="AF5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3934656</v>
       </c>
       <c r="AG5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1710720</v>
       </c>
       <c r="AH5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1900800</v>
       </c>
       <c r="AI5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>985600</v>
       </c>
       <c r="AJ5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2956800</v>
       </c>
       <c r="AK5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2439360</v>
       </c>
       <c r="AL5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>792792</v>
       </c>
       <c r="AM5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>2265120</v>
       </c>
     </row>
@@ -1106,71 +1106,71 @@
         <v>50</v>
       </c>
       <c r="W6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2165760</v>
       </c>
       <c r="X6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8933760</v>
       </c>
       <c r="Y6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>570240</v>
       </c>
       <c r="Z6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>801900</v>
       </c>
       <c r="AA6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>26730</v>
       </c>
       <c r="AB6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11880</v>
       </c>
       <c r="AC6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>297000</v>
       </c>
       <c r="AD6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>217800</v>
       </c>
       <c r="AE6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5771700</v>
       </c>
       <c r="AF6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>10231650</v>
       </c>
       <c r="AG6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4911192</v>
       </c>
       <c r="AH6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>12501216</v>
       </c>
       <c r="AI6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>4717440</v>
       </c>
       <c r="AJ6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2116800</v>
       </c>
       <c r="AK6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>999600</v>
       </c>
       <c r="AL6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>142800</v>
       </c>
       <c r="AM6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>357000</v>
       </c>
     </row>
@@ -1236,71 +1236,71 @@
         <v>70</v>
       </c>
       <c r="W7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7112448</v>
       </c>
       <c r="X7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14224896</v>
       </c>
       <c r="Y7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3338496</v>
       </c>
       <c r="Z7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2761472</v>
       </c>
       <c r="AA7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>986240</v>
       </c>
       <c r="AB7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>400660</v>
       </c>
       <c r="AC7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>661960</v>
       </c>
       <c r="AD7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>395200</v>
       </c>
       <c r="AE7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2647840</v>
       </c>
       <c r="AF7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>6008560</v>
       </c>
       <c r="AG7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>8538480</v>
       </c>
       <c r="AH7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>14942340</v>
       </c>
       <c r="AI7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>14719320</v>
       </c>
       <c r="AJ7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>4490640</v>
       </c>
       <c r="AK7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>3160080</v>
       </c>
       <c r="AL7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>2889216</v>
       </c>
       <c r="AM7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>3064320</v>
       </c>
     </row>
@@ -1366,71 +1366,71 @@
         <v>21</v>
       </c>
       <c r="W8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2369120</v>
       </c>
       <c r="X8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>70720</v>
       </c>
       <c r="Y8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>168640</v>
       </c>
       <c r="Z8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>101184</v>
       </c>
       <c r="AA8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>29760</v>
       </c>
       <c r="AB8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1413600</v>
       </c>
       <c r="AC8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1436400</v>
       </c>
       <c r="AD8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>11251800</v>
       </c>
       <c r="AE8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>21941010</v>
       </c>
       <c r="AF8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>14550354</v>
       </c>
       <c r="AG8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1847664</v>
       </c>
       <c r="AH8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>786240</v>
       </c>
       <c r="AI8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1834560</v>
       </c>
       <c r="AJ8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1921920</v>
       </c>
       <c r="AK8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>11771760</v>
       </c>
       <c r="AL8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>27663636</v>
       </c>
       <c r="AM8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>6383916</v>
       </c>
     </row>
@@ -1496,71 +1496,71 @@
         <v>72</v>
       </c>
       <c r="W9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>382800</v>
       </c>
       <c r="X9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1052700</v>
       </c>
       <c r="Y9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1397220</v>
       </c>
       <c r="Z9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2384910</v>
       </c>
       <c r="AA9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>12401532</v>
       </c>
       <c r="AB9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>18226494</v>
       </c>
       <c r="AC9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4244526</v>
       </c>
       <c r="AD9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3344172</v>
       </c>
       <c r="AE9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10032516</v>
       </c>
       <c r="AF9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>9929088</v>
       </c>
       <c r="AG9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>48477312</v>
       </c>
       <c r="AH9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>8701056</v>
       </c>
       <c r="AI9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>9816576</v>
       </c>
       <c r="AJ9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3476704</v>
       </c>
       <c r="AK9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>3728032</v>
       </c>
       <c r="AL9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>16776144</v>
       </c>
       <c r="AM9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>13725936</v>
       </c>
     </row>
@@ -1626,71 +1626,71 @@
         <v>95</v>
       </c>
       <c r="W10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>156492</v>
       </c>
       <c r="X10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>558900</v>
       </c>
       <c r="Y10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Z10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AA10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AB10">
+      <c r="AA10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="AB10">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="AC10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3009600</v>
       </c>
       <c r="AD10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1386000</v>
       </c>
       <c r="AE10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>441000</v>
       </c>
       <c r="AF10">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AG10">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AH10">
+      <c r="AG10">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AI10">
+      <c r="AH10">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
+      <c r="AI10">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
       <c r="AJ10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>6638874</v>
       </c>
       <c r="AK10">
-        <f t="shared" si="14"/>
-        <v>3373854</v>
-      </c>
-      <c r="AL10">
         <f t="shared" si="15"/>
         <v>3373854</v>
       </c>
+      <c r="AL10">
+        <f t="shared" si="16"/>
+        <v>3373854</v>
+      </c>
       <c r="AM10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>3304290</v>
       </c>
     </row>
@@ -1756,71 +1756,71 @@
         <v>92</v>
       </c>
       <c r="W11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1967784</v>
       </c>
       <c r="X11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>555016</v>
       </c>
       <c r="Y11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2448600</v>
       </c>
       <c r="Z11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1432200</v>
       </c>
       <c r="AA11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3427050</v>
       </c>
       <c r="AB11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2336625</v>
       </c>
       <c r="AC11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2928570</v>
       </c>
       <c r="AD11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>283410</v>
       </c>
       <c r="AE11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>338400</v>
       </c>
       <c r="AF11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>90240</v>
       </c>
       <c r="AG11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>59520</v>
       </c>
       <c r="AH11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>317440</v>
       </c>
       <c r="AI11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>55552</v>
       </c>
       <c r="AJ11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>124992</v>
       </c>
       <c r="AK11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>106848</v>
       </c>
       <c r="AL11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>373968</v>
       </c>
       <c r="AM11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>2457504</v>
       </c>
     </row>
@@ -1886,71 +1886,71 @@
         <v>57</v>
       </c>
       <c r="W12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>131040</v>
       </c>
       <c r="X12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>786240</v>
       </c>
       <c r="Y12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>705600</v>
       </c>
       <c r="Z12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4374720</v>
       </c>
       <c r="AA12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4895520</v>
       </c>
       <c r="AB12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2804725</v>
       </c>
       <c r="AC12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4647830</v>
       </c>
       <c r="AD12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>13193840</v>
       </c>
       <c r="AE12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6737280</v>
       </c>
       <c r="AF12">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AG12">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AH12">
+      <c r="AG12">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AI12">
+      <c r="AH12">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
+      <c r="AI12">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
       <c r="AJ12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>793152</v>
       </c>
       <c r="AK12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1353024</v>
       </c>
       <c r="AL12">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>2129760</v>
       </c>
       <c r="AM12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>5058180</v>
       </c>
     </row>
@@ -2016,71 +2016,71 @@
         <v>58</v>
       </c>
       <c r="W13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="X13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Y13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Z13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10615920</v>
       </c>
       <c r="AA13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1548155</v>
       </c>
       <c r="AB13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>221165</v>
       </c>
       <c r="AC13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>137060</v>
       </c>
       <c r="AD13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>67760</v>
       </c>
       <c r="AE13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>358160</v>
       </c>
       <c r="AF13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3151808</v>
       </c>
       <c r="AG13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4297920</v>
       </c>
       <c r="AH13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2051280</v>
       </c>
       <c r="AI13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3215520</v>
       </c>
       <c r="AJ13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3727080</v>
       </c>
       <c r="AK13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>3354372</v>
       </c>
       <c r="AL13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>2715444</v>
       </c>
       <c r="AM13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>2715444</v>
       </c>
     </row>
@@ -2146,71 +2146,71 @@
         <v>40</v>
       </c>
       <c r="W14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8372160</v>
       </c>
       <c r="X14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2203200</v>
       </c>
       <c r="Y14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2588760</v>
       </c>
       <c r="Z14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1502120</v>
       </c>
       <c r="AA14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1524210</v>
       </c>
       <c r="AB14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8535576</v>
       </c>
       <c r="AC14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6628692</v>
       </c>
       <c r="AD14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>12975312</v>
       </c>
       <c r="AE14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2444624</v>
       </c>
       <c r="AF14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>7508488</v>
       </c>
       <c r="AG14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>5348512</v>
       </c>
       <c r="AH14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>988312</v>
       </c>
       <c r="AI14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>5853848</v>
       </c>
       <c r="AJ14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>272272</v>
       </c>
       <c r="AK14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>466004</v>
       </c>
       <c r="AL14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1507660</v>
       </c>
       <c r="AM14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>783200</v>
       </c>
     </row>
@@ -2276,71 +2276,71 @@
         <v>66</v>
       </c>
       <c r="W15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>138112</v>
       </c>
       <c r="X15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3349216</v>
       </c>
       <c r="Y15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2254280</v>
       </c>
       <c r="Z15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>27896715</v>
       </c>
       <c r="AA15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5377680</v>
       </c>
       <c r="AB15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>388080</v>
       </c>
       <c r="AC15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1075536</v>
       </c>
       <c r="AD15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>619248</v>
       </c>
       <c r="AE15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1238496</v>
       </c>
       <c r="AF15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2830848</v>
       </c>
       <c r="AG15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>758784</v>
       </c>
       <c r="AH15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>346112</v>
       </c>
       <c r="AI15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>854464</v>
       </c>
       <c r="AJ15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1762332</v>
       </c>
       <c r="AK15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1830114</v>
       </c>
       <c r="AL15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>6898122</v>
       </c>
       <c r="AM15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>5762988</v>
       </c>
     </row>
@@ -2406,71 +2406,71 @@
         <v>69</v>
       </c>
       <c r="W16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18741888</v>
       </c>
       <c r="X16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12139632</v>
       </c>
       <c r="Y16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20907144</v>
       </c>
       <c r="Z16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6149160</v>
       </c>
       <c r="AA16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5088960</v>
       </c>
       <c r="AB16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>267840</v>
       </c>
       <c r="AC16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>198720</v>
       </c>
       <c r="AD16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>327888</v>
       </c>
       <c r="AE16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>305118</v>
       </c>
       <c r="AF16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>4678476</v>
       </c>
       <c r="AG16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>5593830</v>
       </c>
       <c r="AH16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2034120</v>
       </c>
       <c r="AI16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>971520</v>
       </c>
       <c r="AJ16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1330560</v>
       </c>
       <c r="AK16">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2249856</v>
       </c>
       <c r="AL16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>9936864</v>
       </c>
       <c r="AM16">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>21426363</v>
       </c>
     </row>
@@ -2536,71 +2536,71 @@
         <v>36</v>
       </c>
       <c r="W17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>196224</v>
       </c>
       <c r="X17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1864128</v>
       </c>
       <c r="Y17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1109600</v>
       </c>
       <c r="Z17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2704650</v>
       </c>
       <c r="AA17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>407550</v>
       </c>
       <c r="AB17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>257400</v>
       </c>
       <c r="AC17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>967824</v>
       </c>
       <c r="AD17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1786752</v>
       </c>
       <c r="AE17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2923776</v>
       </c>
       <c r="AF17">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>974592</v>
       </c>
       <c r="AG17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>476928</v>
       </c>
       <c r="AH17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>192096</v>
       </c>
       <c r="AI17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>341504</v>
       </c>
       <c r="AJ17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1707520</v>
       </c>
       <c r="AK17">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2301440</v>
       </c>
       <c r="AL17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>6031360</v>
       </c>
       <c r="AM17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>6785280</v>
       </c>
     </row>
@@ -2666,71 +2666,71 @@
         <v>16</v>
       </c>
       <c r="W18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2036880</v>
       </c>
       <c r="X18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7332768</v>
       </c>
       <c r="Y18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3188160</v>
       </c>
       <c r="Z18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2036880</v>
       </c>
       <c r="AA18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4371840</v>
       </c>
       <c r="AB18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2064480</v>
       </c>
       <c r="AC18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4266592</v>
       </c>
       <c r="AD18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>18364896</v>
       </c>
       <c r="AE18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>14399748</v>
       </c>
       <c r="AF18">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>34728804</v>
       </c>
       <c r="AG18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>37529514</v>
       </c>
       <c r="AH18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>22366074</v>
       </c>
       <c r="AI18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>27552410</v>
       </c>
       <c r="AJ18">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>24864370</v>
       </c>
       <c r="AK18">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1484440</v>
       </c>
       <c r="AL18">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>905760</v>
       </c>
       <c r="AM18">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>170496</v>
       </c>
     </row>
@@ -2796,71 +2796,71 @@
         <v>54</v>
       </c>
       <c r="W19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1481900</v>
       </c>
       <c r="X19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5779410</v>
       </c>
       <c r="Y19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2454270</v>
       </c>
       <c r="Z19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6310980</v>
       </c>
       <c r="AA19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>217620</v>
       </c>
       <c r="AB19">
-        <f t="shared" si="5"/>
-        <v>206460</v>
-      </c>
-      <c r="AC19">
         <f t="shared" si="6"/>
         <v>206460</v>
       </c>
+      <c r="AC19">
+        <f t="shared" si="7"/>
+        <v>206460</v>
+      </c>
       <c r="AD19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>112406</v>
       </c>
       <c r="AE19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>7980826</v>
       </c>
       <c r="AF19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5176752</v>
       </c>
       <c r="AG19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>14361312</v>
       </c>
       <c r="AH19">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>23740128</v>
       </c>
       <c r="AI19">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>5349888</v>
       </c>
       <c r="AJ19">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2563488</v>
       </c>
       <c r="AK19">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1699056</v>
       </c>
       <c r="AL19">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>104880</v>
       </c>
       <c r="AM19">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>353970</v>
       </c>
     </row>
@@ -2926,71 +2926,71 @@
         <v>48</v>
       </c>
       <c r="W20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>268380</v>
       </c>
       <c r="X20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>22275540</v>
       </c>
       <c r="Y20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>16229322</v>
       </c>
       <c r="Z20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>16229322</v>
       </c>
       <c r="AA20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>15772158</v>
       </c>
       <c r="AB20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3040416</v>
       </c>
       <c r="AC20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5484672</v>
       </c>
       <c r="AD20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3351744</v>
       </c>
       <c r="AE20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2331648</v>
       </c>
       <c r="AF20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>8889408</v>
       </c>
       <c r="AG20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4154832</v>
       </c>
       <c r="AH20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>6547008</v>
       </c>
       <c r="AI20">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>136396</v>
       </c>
       <c r="AJ20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>199004</v>
       </c>
       <c r="AK20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>87932</v>
       </c>
       <c r="AL20">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>113297</v>
       </c>
       <c r="AM20">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>5438256</v>
       </c>
     </row>
@@ -3003,67 +3003,67 @@
         <v>1651104</v>
       </c>
       <c r="X22">
-        <f t="shared" ref="X22:AM37" si="17">B1*B2*B3*B4</f>
+        <f t="shared" ref="X22:AM37" si="18">B1*B2*B3*B4</f>
         <v>336140</v>
       </c>
       <c r="Y22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>6414210</v>
       </c>
       <c r="Z22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>6514520</v>
       </c>
       <c r="AA22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>142120</v>
       </c>
       <c r="AB22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>5759100</v>
       </c>
       <c r="AC22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AD22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2777040</v>
       </c>
       <c r="AE22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AF22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>11118600</v>
       </c>
       <c r="AG22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>184960</v>
       </c>
       <c r="AH22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>750400</v>
       </c>
       <c r="AI22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>36358</v>
       </c>
       <c r="AJ22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>9444864</v>
       </c>
       <c r="AK22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>6027840</v>
       </c>
       <c r="AL22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>122688</v>
       </c>
       <c r="AM22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>362600</v>
       </c>
     </row>
@@ -3073,211 +3073,211 @@
         <v>51267216</v>
       </c>
       <c r="W23">
-        <f t="shared" ref="W23:W86" si="18">A2*A3*A4*A5</f>
+        <f t="shared" ref="W23:W38" si="19">A2*A3*A4*A5</f>
         <v>4540536</v>
       </c>
       <c r="X23">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>5210170</v>
       </c>
       <c r="Y23">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>4664880</v>
       </c>
       <c r="Z23">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>4768360</v>
       </c>
       <c r="AA23">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>190740</v>
       </c>
       <c r="AB23">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>25723980</v>
       </c>
       <c r="AC23">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>174636</v>
       </c>
       <c r="AD23">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>6178914</v>
       </c>
       <c r="AE23">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>15785820</v>
       </c>
       <c r="AF23">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>13638816</v>
       </c>
       <c r="AG23">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1664640</v>
       </c>
       <c r="AH23">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>8104320</v>
       </c>
       <c r="AI23">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>114268</v>
       </c>
       <c r="AJ23">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>4843520</v>
       </c>
       <c r="AK23">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>4636800</v>
       </c>
       <c r="AL23">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>286272</v>
       </c>
       <c r="AM23">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>478632</v>
       </c>
     </row>
     <row r="24" spans="1:39">
       <c r="W24">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>2223936</v>
       </c>
       <c r="X24">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>4997510</v>
       </c>
       <c r="Y24">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1507840</v>
       </c>
       <c r="Z24">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>7152540</v>
       </c>
       <c r="AA24">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1110780</v>
       </c>
       <c r="AB24">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>952740</v>
       </c>
       <c r="AC24">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>436590</v>
       </c>
       <c r="AD24">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>216804</v>
       </c>
       <c r="AE24">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>11576268</v>
       </c>
       <c r="AF24">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>11757600</v>
       </c>
       <c r="AG24">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3231360</v>
       </c>
       <c r="AH24">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>10738224</v>
       </c>
       <c r="AI24">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>90948</v>
       </c>
       <c r="AJ24">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>4055040</v>
       </c>
       <c r="AK24">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>5644800</v>
       </c>
       <c r="AL24">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>119280</v>
       </c>
       <c r="AM24">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>4188030</v>
       </c>
     </row>
     <row r="25" spans="1:39">
       <c r="W25">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>878592</v>
       </c>
       <c r="X25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>9995020</v>
       </c>
       <c r="Y25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3939840</v>
       </c>
       <c r="Z25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2743440</v>
       </c>
       <c r="AA25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1292544</v>
       </c>
       <c r="AB25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>277380</v>
       </c>
       <c r="AC25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2089395</v>
       </c>
       <c r="AD25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>74760</v>
       </c>
       <c r="AE25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3236376</v>
       </c>
       <c r="AF25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>6292800</v>
       </c>
       <c r="AG25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3231360</v>
       </c>
       <c r="AH25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>10738224</v>
       </c>
       <c r="AI25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>101244</v>
       </c>
       <c r="AJ25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2488320</v>
       </c>
       <c r="AK25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>13171200</v>
       </c>
       <c r="AL25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2624160</v>
       </c>
       <c r="AM25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1538460</v>
       </c>
     </row>
@@ -3286,71 +3286,71 @@
         <v>2</v>
       </c>
       <c r="W26">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1132032</v>
       </c>
       <c r="X26">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3712436</v>
       </c>
       <c r="Y26">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>829440</v>
       </c>
       <c r="Z26">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>8111040</v>
       </c>
       <c r="AA26">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>646272</v>
       </c>
       <c r="AB26">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>286626</v>
       </c>
       <c r="AC26">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2279340</v>
       </c>
       <c r="AD26">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>35600</v>
       </c>
       <c r="AE26">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>4455880</v>
       </c>
       <c r="AF26">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>16518600</v>
       </c>
       <c r="AG26">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>4466880</v>
       </c>
       <c r="AH26">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>7478406</v>
       </c>
       <c r="AI26">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>6378372</v>
       </c>
       <c r="AJ26">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>622080</v>
       </c>
       <c r="AK26">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>9408000</v>
       </c>
       <c r="AL26">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3363360</v>
       </c>
       <c r="AM26">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2744280</v>
       </c>
     </row>
@@ -3360,208 +3360,208 @@
         <v>279496</v>
       </c>
       <c r="B27">
-        <f t="shared" ref="B27:T27" si="19">B1*C2*D3*E4</f>
+        <f t="shared" ref="B27:Q27" si="20">B1*C2*D3*E4</f>
         <v>57816</v>
       </c>
       <c r="C27">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>2904000</v>
       </c>
       <c r="D27">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1432981</v>
       </c>
       <c r="E27">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1809864</v>
       </c>
       <c r="F27">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>540270</v>
       </c>
       <c r="G27">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="H27">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>11587200</v>
       </c>
       <c r="I27">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J27">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>85425</v>
       </c>
       <c r="K27">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>271360</v>
       </c>
       <c r="L27">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>2414720</v>
       </c>
       <c r="M27">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>641130</v>
       </c>
       <c r="N27">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>597402</v>
       </c>
       <c r="O27">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>244608</v>
       </c>
       <c r="P27">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>22464</v>
       </c>
       <c r="Q27">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>9172800</v>
       </c>
       <c r="V27" s="2" t="s">
         <v>2</v>
       </c>
       <c r="W27">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1234944</v>
       </c>
       <c r="X27">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>6586580</v>
       </c>
       <c r="Y27">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3006720</v>
       </c>
       <c r="Z27">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>571200</v>
       </c>
       <c r="AA27">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>836352</v>
       </c>
       <c r="AB27">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>312294</v>
       </c>
       <c r="AC27">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3581820</v>
       </c>
       <c r="AD27">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>10400</v>
       </c>
       <c r="AE27">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>10541960</v>
       </c>
       <c r="AF27">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3052350</v>
       </c>
       <c r="AG27">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>9678240</v>
       </c>
       <c r="AH27">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>10802142</v>
       </c>
       <c r="AI27">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>27832896</v>
       </c>
       <c r="AJ27">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1290816</v>
       </c>
       <c r="AK27">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3292800</v>
       </c>
       <c r="AL27">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>10570560</v>
       </c>
       <c r="AM27">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1413720</v>
       </c>
     </row>
     <row r="28" spans="1:39">
       <c r="A28">
-        <f t="shared" ref="A28:A43" si="20">A2*B3*C4*D5</f>
+        <f t="shared" ref="A28:A43" si="21">A2*B3*C4*D5</f>
         <v>16194745</v>
       </c>
       <c r="B28">
-        <f t="shared" ref="B28:B44" si="21">B2*C3*D4*E5</f>
+        <f t="shared" ref="B28:B43" si="22">B2*C3*D4*E5</f>
         <v>1781787</v>
       </c>
       <c r="C28">
-        <f t="shared" ref="C28:C44" si="22">C2*D3*E4*F5</f>
+        <f t="shared" ref="C28:C43" si="23">C2*D3*E4*F5</f>
         <v>1936836</v>
       </c>
       <c r="D28">
-        <f t="shared" ref="D28:D44" si="23">D2*E3*F4*G5</f>
+        <f t="shared" ref="D28:D43" si="24">D2*E3*F4*G5</f>
         <v>8316000</v>
       </c>
       <c r="E28">
-        <f t="shared" ref="E28:E44" si="24">E2*F3*G4*H5</f>
+        <f t="shared" ref="E28:E43" si="25">E2*F3*G4*H5</f>
         <v>1314797</v>
       </c>
       <c r="F28">
-        <f t="shared" ref="F28:F44" si="25">F2*G3*H4*I5</f>
+        <f t="shared" ref="F28:F43" si="26">F2*G3*H4*I5</f>
         <v>1952748</v>
       </c>
       <c r="G28">
-        <f t="shared" ref="G28:G44" si="26">G2*H3*I4*J5</f>
+        <f t="shared" ref="G28:G43" si="27">G2*H3*I4*J5</f>
         <v>3313656</v>
       </c>
       <c r="H28">
-        <f t="shared" ref="H28:H44" si="27">H2*I3*J4*K5</f>
+        <f t="shared" ref="H28:H43" si="28">H2*I3*J4*K5</f>
         <v>4580064</v>
       </c>
       <c r="I28">
-        <f t="shared" ref="I28:I44" si="28">I2*J3*K4*L5</f>
+        <f t="shared" ref="I28:I43" si="29">I2*J3*K4*L5</f>
         <v>15642720</v>
       </c>
       <c r="J28">
-        <f t="shared" ref="J28:J44" si="29">J2*K3*L4*M5</f>
+        <f t="shared" ref="J28:J43" si="30">J2*K3*L4*M5</f>
         <v>4287360</v>
       </c>
       <c r="K28">
-        <f t="shared" ref="K28:K44" si="30">K2*L3*M4*N5</f>
+        <f t="shared" ref="K28:K43" si="31">K2*L3*M4*N5</f>
         <v>45560</v>
       </c>
       <c r="L28">
-        <f t="shared" ref="L28:L44" si="31">L2*M3*N4*O5</f>
+        <f t="shared" ref="L28:L43" si="32">L2*M3*N4*O5</f>
         <v>2713600</v>
       </c>
       <c r="M28">
-        <f t="shared" ref="M28:M44" si="32">M2*N3*O4*P5</f>
+        <f t="shared" ref="M28:M43" si="33">M2*N3*O4*P5</f>
         <v>13522432</v>
       </c>
       <c r="N28">
-        <f t="shared" ref="N28:N44" si="33">N2*O3*P4*Q5</f>
+        <f t="shared" ref="N28:N43" si="34">N2*O3*P4*Q5</f>
         <v>6044940</v>
       </c>
       <c r="O28">
-        <f t="shared" ref="O28:O44" si="34">O2*P3*Q4*R5</f>
+        <f t="shared" ref="O28:O43" si="35">O2*P3*Q4*R5</f>
         <v>252747</v>
       </c>
       <c r="P28">
-        <f t="shared" ref="P28:P44" si="35">P2*Q3*R4*S5</f>
+        <f t="shared" ref="P28:P43" si="36">P2*Q3*R4*S5</f>
         <v>61152</v>
       </c>
       <c r="Q28">
-        <f t="shared" ref="Q28:Q44" si="36">Q2*R3*S4*T5</f>
+        <f t="shared" ref="Q28:Q43" si="37">Q2*R3*S4*T5</f>
         <v>149760</v>
       </c>
       <c r="V28" s="2">
@@ -3569,1801 +3569,1801 @@
         <v>40304286</v>
       </c>
       <c r="W28">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1080576</v>
       </c>
       <c r="X28">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>5045040</v>
       </c>
       <c r="Y28">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2161080</v>
       </c>
       <c r="Z28">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>85680</v>
       </c>
       <c r="AA28">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>633600</v>
       </c>
       <c r="AB28">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AC28">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>6049296</v>
       </c>
       <c r="AD28">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>228800</v>
       </c>
       <c r="AE28">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>4791800</v>
       </c>
       <c r="AF28">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1831410</v>
       </c>
       <c r="AG28">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>10264800</v>
       </c>
       <c r="AH28">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2853396</v>
       </c>
       <c r="AI28">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AJ28">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2187216</v>
       </c>
       <c r="AK28">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1293600</v>
       </c>
       <c r="AL28">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>51267216</v>
       </c>
       <c r="AM28">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1373328</v>
       </c>
     </row>
     <row r="29" spans="1:39">
       <c r="A29">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>5443200</v>
       </c>
       <c r="B29">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>32719995</v>
       </c>
       <c r="C29">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>109089</v>
       </c>
       <c r="D29">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>880380</v>
       </c>
       <c r="E29">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>415800</v>
       </c>
       <c r="F29">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>3403004</v>
       </c>
       <c r="G29">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>1808100</v>
       </c>
       <c r="H29">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>6075036</v>
       </c>
       <c r="I29">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>4258656</v>
       </c>
       <c r="J29">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>20335536</v>
       </c>
       <c r="K29">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>1774080</v>
       </c>
       <c r="L29">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>225120</v>
       </c>
       <c r="M29">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>1356800</v>
       </c>
       <c r="N29">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>4829440</v>
       </c>
       <c r="O29">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>2389860</v>
       </c>
       <c r="P29">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>43956</v>
       </c>
       <c r="Q29">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>63700</v>
       </c>
       <c r="W29">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>2633904</v>
       </c>
       <c r="X29">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>875160</v>
       </c>
       <c r="Y29">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1414040</v>
       </c>
       <c r="Z29">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>85680</v>
       </c>
       <c r="AA29">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>217800</v>
       </c>
       <c r="AB29">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AC29">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2798928</v>
       </c>
       <c r="AD29">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1532960</v>
       </c>
       <c r="AE29">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2764500</v>
       </c>
       <c r="AF29">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>4530330</v>
       </c>
       <c r="AG29">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>769860</v>
       </c>
       <c r="AH29">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3407040</v>
       </c>
       <c r="AI29">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AJ29">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2511248</v>
       </c>
       <c r="AK29">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>295680</v>
       </c>
       <c r="AL29">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>10874864</v>
       </c>
       <c r="AM29">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>686664</v>
       </c>
     </row>
     <row r="30" spans="1:39">
       <c r="A30">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1444352</v>
       </c>
       <c r="B30">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>4300800</v>
       </c>
       <c r="C30">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>15358365</v>
       </c>
       <c r="D30">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>235773</v>
       </c>
       <c r="E30">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>120600</v>
       </c>
       <c r="F30">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>196560</v>
       </c>
       <c r="G30">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>1636888</v>
       </c>
       <c r="H30">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>5166000</v>
       </c>
       <c r="I30">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>14035428</v>
       </c>
       <c r="J30">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>2701728</v>
       </c>
       <c r="K30">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>15466464</v>
       </c>
       <c r="L30">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>3104640</v>
       </c>
       <c r="M30">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>221760</v>
       </c>
       <c r="N30">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>460800</v>
       </c>
       <c r="O30">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>2085440</v>
       </c>
       <c r="P30">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>5098368</v>
       </c>
       <c r="Q30">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>1025640</v>
       </c>
       <c r="W30">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>628992</v>
       </c>
       <c r="X30">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1312740</v>
       </c>
       <c r="Y30">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>353510</v>
       </c>
       <c r="Z30">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>52920</v>
       </c>
       <c r="AA30">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>10454400</v>
       </c>
       <c r="AB30">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AC30">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>7230564</v>
       </c>
       <c r="AD30">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3602456</v>
       </c>
       <c r="AE30">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1600500</v>
       </c>
       <c r="AF30">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>4170780</v>
       </c>
       <c r="AG30">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>720720</v>
       </c>
       <c r="AH30">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2096640</v>
       </c>
       <c r="AI30">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AJ30">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>5336402</v>
       </c>
       <c r="AK30">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>399168</v>
       </c>
       <c r="AL30">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2868096</v>
       </c>
       <c r="AM30">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>374544</v>
       </c>
     </row>
     <row r="31" spans="1:39">
       <c r="A31">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>5695272</v>
       </c>
       <c r="B31">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>55552</v>
       </c>
       <c r="C31">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>3809280</v>
       </c>
       <c r="D31">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1940004</v>
       </c>
       <c r="E31">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>205020</v>
       </c>
       <c r="F31">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>2864250</v>
       </c>
       <c r="G31">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>206388</v>
       </c>
       <c r="H31">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>13987952</v>
       </c>
       <c r="I31">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>4797000</v>
       </c>
       <c r="J31">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>12814956</v>
       </c>
       <c r="K31">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>900576</v>
       </c>
       <c r="L31">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>9097920</v>
       </c>
       <c r="M31">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>5045040</v>
       </c>
       <c r="N31">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>14636160</v>
       </c>
       <c r="O31">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>705600</v>
       </c>
       <c r="P31">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>3500560</v>
       </c>
       <c r="Q31">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>1507968</v>
       </c>
       <c r="W31">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>2253888</v>
       </c>
       <c r="X31">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1336608</v>
       </c>
       <c r="Y31">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="Z31">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>508032</v>
       </c>
       <c r="AA31">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>5544000</v>
       </c>
       <c r="AB31">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AC31">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>6500204</v>
       </c>
       <c r="AD31">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>969892</v>
       </c>
       <c r="AE31">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>82500</v>
       </c>
       <c r="AF31">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>10794960</v>
       </c>
       <c r="AG31">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>406560</v>
       </c>
       <c r="AH31">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>994560</v>
       </c>
       <c r="AI31">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AJ31">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3857640</v>
       </c>
       <c r="AK31">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>598752</v>
       </c>
       <c r="AL31">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1890336</v>
       </c>
       <c r="AM31">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>561816</v>
       </c>
     </row>
     <row r="32" spans="1:39">
       <c r="A32">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>235200</v>
       </c>
       <c r="B32">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>17085816</v>
       </c>
       <c r="C32">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>130816</v>
       </c>
       <c r="D32">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>23569920</v>
       </c>
       <c r="E32">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>710424</v>
       </c>
       <c r="F32">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>389940</v>
       </c>
       <c r="G32">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>726750</v>
       </c>
       <c r="H32">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>255528</v>
       </c>
       <c r="I32">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>12259104</v>
       </c>
       <c r="J32">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>11232000</v>
       </c>
       <c r="K32">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>11561319</v>
       </c>
       <c r="L32">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>350224</v>
       </c>
       <c r="M32">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>14826240</v>
       </c>
       <c r="N32">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>7796880</v>
       </c>
       <c r="O32">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>32565456</v>
       </c>
       <c r="P32">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1111320</v>
       </c>
       <c r="Q32">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>9001440</v>
       </c>
       <c r="W32">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>2039232</v>
       </c>
       <c r="X32">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2970240</v>
       </c>
       <c r="Y32">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="Z32">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3838464</v>
       </c>
       <c r="AA32">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>369600</v>
       </c>
       <c r="AB32">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>17519250</v>
       </c>
       <c r="AC32">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>4019863</v>
       </c>
       <c r="AD32">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1520967</v>
       </c>
       <c r="AE32">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>115500</v>
       </c>
       <c r="AF32">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>17511824</v>
       </c>
       <c r="AG32">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1068672</v>
       </c>
       <c r="AH32">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>923520</v>
       </c>
       <c r="AI32">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AJ32">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3288480</v>
       </c>
       <c r="AK32">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>308448</v>
       </c>
       <c r="AL32">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1500576</v>
       </c>
       <c r="AM32">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>66096</v>
       </c>
     </row>
     <row r="33" spans="1:39">
       <c r="A33">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>434304</v>
       </c>
       <c r="B33">
+        <f t="shared" si="22"/>
+        <v>735000</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="24"/>
+        <v>310688</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="25"/>
+        <v>17284608</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="26"/>
+        <v>143520</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="27"/>
+        <v>5849100</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="28"/>
+        <v>565250</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="29"/>
+        <v>1788696</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="31"/>
+        <v>9135360</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="32"/>
+        <v>11561319</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="33"/>
+        <v>640976</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="34"/>
+        <v>6462720</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="35"/>
+        <v>6713980</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="36"/>
+        <v>12793572</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="37"/>
+        <v>5278770</v>
+      </c>
+      <c r="W33">
+        <f t="shared" si="19"/>
+        <v>104576</v>
+      </c>
+      <c r="X33">
+        <f t="shared" si="18"/>
+        <v>9085440</v>
+      </c>
+      <c r="Y33">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="Z33">
+        <f t="shared" si="18"/>
+        <v>11378304</v>
+      </c>
+      <c r="AA33">
+        <f t="shared" si="18"/>
+        <v>1629600</v>
+      </c>
+      <c r="AB33">
+        <f t="shared" si="18"/>
+        <v>8175650</v>
+      </c>
+      <c r="AC33">
+        <f t="shared" si="18"/>
+        <v>12837627</v>
+      </c>
+      <c r="AD33">
+        <f t="shared" si="18"/>
+        <v>363216</v>
+      </c>
+      <c r="AE33">
+        <f t="shared" si="18"/>
+        <v>53900</v>
+      </c>
+      <c r="AF33">
+        <f t="shared" si="18"/>
+        <v>18070712</v>
+      </c>
+      <c r="AG33">
+        <f t="shared" si="18"/>
+        <v>20304768</v>
+      </c>
+      <c r="AH33">
+        <f t="shared" si="18"/>
+        <v>369408</v>
+      </c>
+      <c r="AI33">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AJ33">
+        <f t="shared" si="18"/>
+        <v>1379040</v>
+      </c>
+      <c r="AK33">
+        <f t="shared" si="18"/>
+        <v>501228</v>
+      </c>
+      <c r="AL33">
+        <f t="shared" si="18"/>
+        <v>8467536</v>
+      </c>
+      <c r="AM33">
+        <f t="shared" si="18"/>
+        <v>242352</v>
+      </c>
+    </row>
+    <row r="34" spans="1:39">
+      <c r="A34">
         <f t="shared" si="21"/>
-        <v>735000</v>
-      </c>
-      <c r="C33">
+        <v>2373140</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="22"/>
+        <v>298584</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="23"/>
+        <v>562500</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="25"/>
+        <v>743432</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="26"/>
+        <v>4051080</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="27"/>
+        <v>586560</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="28"/>
+        <v>261900</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="29"/>
+        <v>4522000</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="30"/>
+        <v>275184</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="32"/>
+        <v>3654144</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="33"/>
+        <v>2415798</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="34"/>
+        <v>97776</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="35"/>
+        <v>6343040</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="36"/>
+        <v>5371184</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="37"/>
+        <v>17833464</v>
+      </c>
+      <c r="W34">
+        <f t="shared" si="19"/>
+        <v>575168</v>
+      </c>
+      <c r="X34">
+        <f t="shared" si="18"/>
+        <v>8386560</v>
+      </c>
+      <c r="Y34">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="Z34">
+        <f t="shared" si="18"/>
+        <v>23569344</v>
+      </c>
+      <c r="AA34">
+        <f t="shared" si="18"/>
+        <v>967575</v>
+      </c>
+      <c r="AB34">
+        <f t="shared" si="18"/>
+        <v>14482580</v>
+      </c>
+      <c r="AC34">
+        <f t="shared" si="18"/>
+        <v>8282340</v>
+      </c>
+      <c r="AD34">
+        <f t="shared" si="18"/>
+        <v>556416</v>
+      </c>
+      <c r="AE34">
+        <f t="shared" si="18"/>
+        <v>2940</v>
+      </c>
+      <c r="AF34">
+        <f t="shared" si="18"/>
+        <v>14331944</v>
+      </c>
+      <c r="AG34">
+        <f t="shared" si="18"/>
+        <v>7614288</v>
+      </c>
+      <c r="AH34">
+        <f t="shared" si="18"/>
+        <v>1031264</v>
+      </c>
+      <c r="AI34">
+        <f t="shared" si="18"/>
+        <v>2785024</v>
+      </c>
+      <c r="AJ34">
+        <f t="shared" si="18"/>
+        <v>4461600</v>
+      </c>
+      <c r="AK34">
+        <f t="shared" si="18"/>
+        <v>111384</v>
+      </c>
+      <c r="AL34">
+        <f t="shared" si="18"/>
+        <v>11290048</v>
+      </c>
+      <c r="AM34">
+        <f t="shared" si="18"/>
+        <v>424116</v>
+      </c>
+    </row>
+    <row r="35" spans="1:39">
+      <c r="A35">
+        <f t="shared" si="21"/>
+        <v>1923264</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="22"/>
+        <v>3400320</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="23"/>
+        <v>401940</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="24"/>
+        <v>871875</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="26"/>
+        <v>20444380</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="27"/>
+        <v>3789720</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="28"/>
+        <v>4301440</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="29"/>
+        <v>314280</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="31"/>
+        <v>74256</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="33"/>
+        <v>2248704</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="34"/>
+        <v>1380456</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="35"/>
+        <v>354438</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="36"/>
+        <v>13478960</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" si="37"/>
+        <v>3364368</v>
+      </c>
+      <c r="W35">
+        <f t="shared" si="19"/>
+        <v>26752</v>
+      </c>
+      <c r="X35">
+        <f t="shared" si="18"/>
+        <v>6289920</v>
+      </c>
+      <c r="Y35">
+        <f t="shared" si="18"/>
+        <v>705024</v>
+      </c>
+      <c r="Z35">
+        <f t="shared" si="18"/>
+        <v>35845044</v>
+      </c>
+      <c r="AA35">
+        <f t="shared" si="18"/>
+        <v>1050510</v>
+      </c>
+      <c r="AB35">
+        <f t="shared" si="18"/>
+        <v>5099500</v>
+      </c>
+      <c r="AC35">
+        <f t="shared" si="18"/>
+        <v>3629340</v>
+      </c>
+      <c r="AD35">
+        <f t="shared" si="18"/>
+        <v>874368</v>
+      </c>
+      <c r="AE35">
+        <f t="shared" si="18"/>
+        <v>14112</v>
+      </c>
+      <c r="AF35">
+        <f t="shared" si="18"/>
+        <v>30618244</v>
+      </c>
+      <c r="AG35">
+        <f t="shared" si="18"/>
+        <v>12459744</v>
+      </c>
+      <c r="AH35">
+        <f t="shared" si="18"/>
+        <v>501696</v>
+      </c>
+      <c r="AI35">
+        <f t="shared" si="18"/>
+        <v>506368</v>
+      </c>
+      <c r="AJ35">
+        <f t="shared" si="18"/>
+        <v>3420560</v>
+      </c>
+      <c r="AK35">
+        <f t="shared" si="18"/>
+        <v>153816</v>
+      </c>
+      <c r="AL35">
+        <f t="shared" si="18"/>
+        <v>6228992</v>
+      </c>
+      <c r="AM35">
+        <f t="shared" si="18"/>
+        <v>332640</v>
+      </c>
+    </row>
+    <row r="36" spans="1:39">
+      <c r="A36">
+        <f t="shared" si="21"/>
+        <v>85680</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="22"/>
+        <v>2804760</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="23"/>
+        <v>4389504</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="24"/>
+        <v>616770</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="25"/>
+        <v>1220625</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="27"/>
+        <v>12322640</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="28"/>
+        <v>1684320</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="29"/>
+        <v>6121280</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="30"/>
+        <v>142560</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="32"/>
+        <v>19992</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="34"/>
+        <v>1194624</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="35"/>
+        <v>898128</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="36"/>
+        <v>430389</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" si="37"/>
+        <v>8883860</v>
+      </c>
+      <c r="W36">
+        <f t="shared" si="19"/>
+        <v>28160</v>
+      </c>
+      <c r="X36">
+        <f t="shared" si="18"/>
+        <v>5425056</v>
+      </c>
+      <c r="Y36">
+        <f t="shared" si="18"/>
+        <v>313344</v>
+      </c>
+      <c r="Z36">
+        <f t="shared" si="18"/>
+        <v>21612453</v>
+      </c>
+      <c r="AA36">
+        <f t="shared" si="18"/>
+        <v>15127344</v>
+      </c>
+      <c r="AB36">
+        <f t="shared" si="18"/>
+        <v>1627500</v>
+      </c>
+      <c r="AC36">
+        <f t="shared" si="18"/>
+        <v>1776060</v>
+      </c>
+      <c r="AD36">
+        <f t="shared" si="18"/>
+        <v>1115136</v>
+      </c>
+      <c r="AE36">
+        <f t="shared" si="18"/>
+        <v>17136</v>
+      </c>
+      <c r="AF36">
+        <f t="shared" si="18"/>
+        <v>26004536</v>
+      </c>
+      <c r="AG36">
+        <f t="shared" si="18"/>
+        <v>13407768</v>
+      </c>
+      <c r="AH36">
+        <f t="shared" si="18"/>
+        <v>2662848</v>
+      </c>
+      <c r="AI36">
+        <f t="shared" si="18"/>
+        <v>482816</v>
+      </c>
+      <c r="AJ36">
+        <f t="shared" si="18"/>
+        <v>4407260</v>
+      </c>
+      <c r="AK36">
+        <f t="shared" si="18"/>
+        <v>533832</v>
+      </c>
+      <c r="AL36">
+        <f t="shared" si="18"/>
+        <v>6876160</v>
+      </c>
+      <c r="AM36">
+        <f t="shared" si="18"/>
+        <v>6153840</v>
+      </c>
+    </row>
+    <row r="37" spans="1:39">
+      <c r="A37">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="22"/>
+        <v>20400</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="23"/>
+        <v>7323540</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="24"/>
+        <v>8969856</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="25"/>
+        <v>4728570</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="26"/>
+        <v>455700</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="27"/>
+        <v>531805</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="28"/>
+        <v>14916880</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="29"/>
+        <v>497640</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="30"/>
+        <v>26321504</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="31"/>
+        <v>164736</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <f t="shared" si="33"/>
+        <v>109956</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="34"/>
+        <v>776736</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="35"/>
+        <v>1742976</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="36"/>
+        <v>1496880</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" si="37"/>
+        <v>177480</v>
+      </c>
+      <c r="W37">
+        <f t="shared" si="19"/>
+        <v>140800</v>
+      </c>
+      <c r="X37">
+        <f t="shared" si="18"/>
+        <v>7615944</v>
+      </c>
+      <c r="Y37">
+        <f t="shared" si="18"/>
+        <v>1370880</v>
+      </c>
+      <c r="Z37">
+        <f t="shared" si="18"/>
+        <v>7551339</v>
+      </c>
+      <c r="AA37">
+        <f t="shared" si="18"/>
+        <v>12164256</v>
+      </c>
+      <c r="AB37">
+        <f t="shared" si="18"/>
+        <v>1441500</v>
+      </c>
+      <c r="AC37">
+        <f t="shared" si="18"/>
+        <v>1614600</v>
+      </c>
+      <c r="AD37">
+        <f t="shared" si="18"/>
+        <v>69696</v>
+      </c>
+      <c r="AE37">
+        <f t="shared" si="18"/>
+        <v>181152</v>
+      </c>
+      <c r="AF37">
+        <f t="shared" si="18"/>
+        <v>8310728</v>
+      </c>
+      <c r="AG37">
+        <f t="shared" si="18"/>
+        <v>11525976</v>
+      </c>
+      <c r="AH37">
+        <f t="shared" si="18"/>
+        <v>5908194</v>
+      </c>
+      <c r="AI37">
+        <f t="shared" si="18"/>
+        <v>1448448</v>
+      </c>
+      <c r="AJ37">
+        <f t="shared" si="18"/>
+        <v>14577860</v>
+      </c>
+      <c r="AK37">
+        <f t="shared" si="18"/>
+        <v>1663092</v>
+      </c>
+      <c r="AL37">
+        <f t="shared" si="18"/>
+        <v>1392640</v>
+      </c>
+      <c r="AM37">
+        <f t="shared" ref="AM37:AM38" si="38">Q16*Q17*Q18*Q19</f>
+        <v>4289040</v>
+      </c>
+    </row>
+    <row r="38" spans="1:39">
+      <c r="A38">
+        <f t="shared" si="21"/>
+        <v>6023808</v>
+      </c>
+      <c r="B38">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="D33">
+      <c r="C38">
         <f t="shared" si="23"/>
-        <v>310688</v>
-      </c>
-      <c r="E33">
+        <v>42000</v>
+      </c>
+      <c r="D38">
         <f t="shared" si="24"/>
-        <v>17284608</v>
-      </c>
-      <c r="F33">
+        <v>13679820</v>
+      </c>
+      <c r="E38">
         <f t="shared" si="25"/>
-        <v>143520</v>
-      </c>
-      <c r="G33">
+        <v>5125632</v>
+      </c>
+      <c r="F38">
         <f t="shared" si="26"/>
-        <v>5849100</v>
-      </c>
-      <c r="H33">
+        <v>1504545</v>
+      </c>
+      <c r="G38">
         <f t="shared" si="27"/>
-        <v>565250</v>
-      </c>
-      <c r="I33">
+        <v>589372</v>
+      </c>
+      <c r="H38">
         <f t="shared" si="28"/>
-        <v>1788696</v>
-      </c>
-      <c r="J33">
+        <v>977835</v>
+      </c>
+      <c r="I38">
         <f t="shared" si="29"/>
+        <v>7124480</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="30"/>
+        <v>530816</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="31"/>
+        <v>7280416</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="32"/>
+        <v>1427712</v>
+      </c>
+      <c r="M38">
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="K33">
-        <f t="shared" si="30"/>
-        <v>9135360</v>
-      </c>
-      <c r="L33">
-        <f t="shared" si="31"/>
-        <v>11561319</v>
-      </c>
-      <c r="M33">
-        <f t="shared" si="32"/>
-        <v>640976</v>
-      </c>
-      <c r="N33">
-        <f t="shared" si="33"/>
-        <v>6462720</v>
-      </c>
-      <c r="O33">
+      <c r="N38">
         <f t="shared" si="34"/>
-        <v>6713980</v>
-      </c>
-      <c r="P33">
+        <v>907137</v>
+      </c>
+      <c r="O38">
         <f t="shared" si="35"/>
-        <v>12793572</v>
-      </c>
-      <c r="Q33">
+        <v>338256</v>
+      </c>
+      <c r="P38">
         <f t="shared" si="36"/>
-        <v>5278770</v>
-      </c>
-      <c r="W33">
-        <f t="shared" si="18"/>
-        <v>104576</v>
-      </c>
-      <c r="X33">
-        <f t="shared" si="17"/>
-        <v>9085440</v>
-      </c>
-      <c r="Y33">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="Z33">
-        <f t="shared" si="17"/>
-        <v>11378304</v>
-      </c>
-      <c r="AA33">
-        <f t="shared" si="17"/>
-        <v>1629600</v>
-      </c>
-      <c r="AB33">
-        <f t="shared" si="17"/>
-        <v>8175650</v>
-      </c>
-      <c r="AC33">
-        <f t="shared" si="17"/>
-        <v>12837627</v>
-      </c>
-      <c r="AD33">
-        <f t="shared" si="17"/>
-        <v>363216</v>
-      </c>
-      <c r="AE33">
-        <f t="shared" si="17"/>
-        <v>53900</v>
-      </c>
-      <c r="AF33">
-        <f t="shared" si="17"/>
-        <v>18070712</v>
-      </c>
-      <c r="AG33">
-        <f t="shared" si="17"/>
-        <v>20304768</v>
-      </c>
-      <c r="AH33">
-        <f t="shared" si="17"/>
-        <v>369408</v>
-      </c>
-      <c r="AI33">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AJ33">
-        <f t="shared" si="17"/>
-        <v>1379040</v>
-      </c>
-      <c r="AK33">
-        <f t="shared" si="17"/>
-        <v>501228</v>
-      </c>
-      <c r="AL33">
-        <f t="shared" si="17"/>
-        <v>8467536</v>
-      </c>
-      <c r="AM33">
-        <f t="shared" si="17"/>
-        <v>242352</v>
-      </c>
-    </row>
-    <row r="34" spans="1:39">
-      <c r="A34">
-        <f t="shared" si="20"/>
-        <v>2373140</v>
-      </c>
-      <c r="B34">
+        <v>10675728</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" si="37"/>
+        <v>7056720</v>
+      </c>
+      <c r="W38">
+        <f t="shared" si="19"/>
+        <v>1600</v>
+      </c>
+      <c r="X38">
+        <f t="shared" ref="X38" si="39">B17*B18*B19*B20</f>
+        <v>14808780</v>
+      </c>
+      <c r="Y38">
+        <f t="shared" ref="Y38" si="40">C17*C18*C19*C20</f>
+        <v>1088640</v>
+      </c>
+      <c r="Z38">
+        <f t="shared" ref="Z38" si="41">D17*D18*D19*D20</f>
+        <v>6162587</v>
+      </c>
+      <c r="AA38">
+        <f t="shared" ref="AA38" si="42">E17*E18*E19*E20</f>
+        <v>17712864</v>
+      </c>
+      <c r="AB38">
+        <f t="shared" ref="AB38" si="43">F17*F18*F19*F20</f>
+        <v>1185750</v>
+      </c>
+      <c r="AC38">
+        <f t="shared" ref="AC38" si="44">G17*G18*G19*G20</f>
+        <v>4359420</v>
+      </c>
+      <c r="AD38">
+        <f t="shared" ref="AD38" si="45">H17*H18*H19*H20</f>
+        <v>66792</v>
+      </c>
+      <c r="AE38">
+        <f t="shared" ref="AE38" si="46">I17*I18*I19*I20</f>
+        <v>966144</v>
+      </c>
+      <c r="AF38">
+        <f t="shared" ref="AF38" si="47">J17*J18*J19*J20</f>
+        <v>16621456</v>
+      </c>
+      <c r="AG38">
+        <f t="shared" ref="AG38" si="48">K17*K18*K19*K20</f>
+        <v>11525976</v>
+      </c>
+      <c r="AH38">
+        <f t="shared" ref="AH38" si="49">L17*L18*L19*L20</f>
+        <v>4232736</v>
+      </c>
+      <c r="AI38">
+        <f t="shared" ref="AI38" si="50">M17*M18*M19*M20</f>
+        <v>1920768</v>
+      </c>
+      <c r="AJ38">
+        <f t="shared" ref="AJ38" si="51">N17*N18*N19*N20</f>
+        <v>11397236</v>
+      </c>
+      <c r="AK38">
+        <f t="shared" ref="AK38" si="52">O17*O18*O19*O20</f>
+        <v>7206732</v>
+      </c>
+      <c r="AL38">
+        <f t="shared" ref="AL38" si="53">P17*P18*P19*P20</f>
+        <v>43520</v>
+      </c>
+      <c r="AM38">
+        <f t="shared" si="38"/>
+        <v>6059120</v>
+      </c>
+    </row>
+    <row r="39" spans="1:39">
+      <c r="A39">
         <f t="shared" si="21"/>
-        <v>298584</v>
-      </c>
-      <c r="C34">
+        <v>4788480</v>
+      </c>
+      <c r="B39">
         <f t="shared" si="22"/>
-        <v>562500</v>
-      </c>
-      <c r="D34">
+        <v>21459816</v>
+      </c>
+      <c r="C39">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="E34">
+      <c r="D39">
         <f t="shared" si="24"/>
-        <v>743432</v>
-      </c>
-      <c r="F34">
+        <v>168000</v>
+      </c>
+      <c r="E39">
         <f t="shared" si="25"/>
-        <v>4051080</v>
-      </c>
-      <c r="G34">
+        <v>23451120</v>
+      </c>
+      <c r="F39">
         <f t="shared" si="26"/>
-        <v>586560</v>
-      </c>
-      <c r="H34">
+        <v>160176</v>
+      </c>
+      <c r="G39">
         <f t="shared" si="27"/>
-        <v>261900</v>
-      </c>
-      <c r="I34">
+        <v>1977402</v>
+      </c>
+      <c r="H39">
         <f t="shared" si="28"/>
-        <v>4522000</v>
-      </c>
-      <c r="J34">
+        <v>627396</v>
+      </c>
+      <c r="I39">
         <f t="shared" si="29"/>
-        <v>275184</v>
-      </c>
-      <c r="K34">
+        <v>1393935</v>
+      </c>
+      <c r="J39">
         <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="L34">
+        <v>5958656</v>
+      </c>
+      <c r="K39">
         <f t="shared" si="31"/>
-        <v>3654144</v>
-      </c>
-      <c r="M34">
+        <v>503360</v>
+      </c>
+      <c r="L39">
         <f t="shared" si="32"/>
-        <v>2415798</v>
-      </c>
-      <c r="N34">
+        <v>992784</v>
+      </c>
+      <c r="M39">
         <f t="shared" si="33"/>
-        <v>97776</v>
-      </c>
-      <c r="O34">
+        <v>1903616</v>
+      </c>
+      <c r="N39">
         <f t="shared" si="34"/>
-        <v>6343040</v>
-      </c>
-      <c r="P34">
+        <v>5076540</v>
+      </c>
+      <c r="O39">
         <f t="shared" si="35"/>
-        <v>5371184</v>
-      </c>
-      <c r="Q34">
+        <v>4962573</v>
+      </c>
+      <c r="P39">
         <f t="shared" si="36"/>
-        <v>17833464</v>
-      </c>
-      <c r="W34">
-        <f t="shared" si="18"/>
-        <v>575168</v>
-      </c>
-      <c r="X34">
-        <f t="shared" si="17"/>
-        <v>8386560</v>
-      </c>
-      <c r="Y34">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="Z34">
-        <f t="shared" si="17"/>
-        <v>23569344</v>
-      </c>
-      <c r="AA34">
-        <f t="shared" si="17"/>
-        <v>967575</v>
-      </c>
-      <c r="AB34">
-        <f t="shared" si="17"/>
-        <v>14482580</v>
-      </c>
-      <c r="AC34">
-        <f t="shared" si="17"/>
-        <v>8282340</v>
-      </c>
-      <c r="AD34">
-        <f t="shared" si="17"/>
-        <v>556416</v>
-      </c>
-      <c r="AE34">
-        <f t="shared" si="17"/>
-        <v>2940</v>
-      </c>
-      <c r="AF34">
-        <f t="shared" si="17"/>
-        <v>14331944</v>
-      </c>
-      <c r="AG34">
-        <f t="shared" si="17"/>
-        <v>7614288</v>
-      </c>
-      <c r="AH34">
-        <f t="shared" si="17"/>
-        <v>1031264</v>
-      </c>
-      <c r="AI34">
-        <f t="shared" si="17"/>
-        <v>2785024</v>
-      </c>
-      <c r="AJ34">
-        <f t="shared" si="17"/>
-        <v>4461600</v>
-      </c>
-      <c r="AK34">
-        <f t="shared" si="17"/>
-        <v>111384</v>
-      </c>
-      <c r="AL34">
-        <f t="shared" si="17"/>
-        <v>11290048</v>
-      </c>
-      <c r="AM34">
-        <f t="shared" si="17"/>
-        <v>424116</v>
-      </c>
-    </row>
-    <row r="35" spans="1:39">
-      <c r="A35">
-        <f t="shared" si="20"/>
-        <v>1923264</v>
-      </c>
-      <c r="B35">
-        <f t="shared" si="21"/>
-        <v>3400320</v>
-      </c>
-      <c r="C35">
-        <f t="shared" si="22"/>
-        <v>401940</v>
-      </c>
-      <c r="D35">
-        <f t="shared" si="23"/>
-        <v>871875</v>
-      </c>
-      <c r="E35">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="F35">
-        <f t="shared" si="25"/>
-        <v>20444380</v>
-      </c>
-      <c r="G35">
-        <f t="shared" si="26"/>
-        <v>3789720</v>
-      </c>
-      <c r="H35">
-        <f t="shared" si="27"/>
-        <v>4301440</v>
-      </c>
-      <c r="I35">
-        <f t="shared" si="28"/>
-        <v>314280</v>
-      </c>
-      <c r="J35">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="K35">
-        <f t="shared" si="30"/>
-        <v>74256</v>
-      </c>
-      <c r="L35">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="M35">
-        <f t="shared" si="32"/>
-        <v>2248704</v>
-      </c>
-      <c r="N35">
-        <f t="shared" si="33"/>
-        <v>1380456</v>
-      </c>
-      <c r="O35">
-        <f t="shared" si="34"/>
-        <v>354438</v>
-      </c>
-      <c r="P35">
-        <f t="shared" si="35"/>
-        <v>13478960</v>
-      </c>
-      <c r="Q35">
-        <f t="shared" si="36"/>
-        <v>3364368</v>
-      </c>
-      <c r="W35">
-        <f t="shared" si="18"/>
-        <v>26752</v>
-      </c>
-      <c r="X35">
-        <f t="shared" si="17"/>
-        <v>6289920</v>
-      </c>
-      <c r="Y35">
-        <f t="shared" si="17"/>
-        <v>705024</v>
-      </c>
-      <c r="Z35">
-        <f t="shared" si="17"/>
-        <v>35845044</v>
-      </c>
-      <c r="AA35">
-        <f t="shared" si="17"/>
-        <v>1050510</v>
-      </c>
-      <c r="AB35">
-        <f t="shared" si="17"/>
-        <v>5099500</v>
-      </c>
-      <c r="AC35">
-        <f t="shared" si="17"/>
-        <v>3629340</v>
-      </c>
-      <c r="AD35">
-        <f t="shared" si="17"/>
-        <v>874368</v>
-      </c>
-      <c r="AE35">
-        <f t="shared" si="17"/>
-        <v>14112</v>
-      </c>
-      <c r="AF35">
-        <f t="shared" si="17"/>
-        <v>30618244</v>
-      </c>
-      <c r="AG35">
-        <f t="shared" si="17"/>
-        <v>12459744</v>
-      </c>
-      <c r="AH35">
-        <f t="shared" si="17"/>
-        <v>501696</v>
-      </c>
-      <c r="AI35">
-        <f t="shared" si="17"/>
-        <v>506368</v>
-      </c>
-      <c r="AJ35">
-        <f t="shared" si="17"/>
-        <v>3420560</v>
-      </c>
-      <c r="AK35">
-        <f t="shared" si="17"/>
-        <v>153816</v>
-      </c>
-      <c r="AL35">
-        <f t="shared" si="17"/>
-        <v>6228992</v>
-      </c>
-      <c r="AM35">
-        <f t="shared" si="17"/>
-        <v>332640</v>
-      </c>
-    </row>
-    <row r="36" spans="1:39">
-      <c r="A36">
-        <f t="shared" si="20"/>
-        <v>85680</v>
-      </c>
-      <c r="B36">
-        <f t="shared" si="21"/>
-        <v>2804760</v>
-      </c>
-      <c r="C36">
-        <f t="shared" si="22"/>
-        <v>4389504</v>
-      </c>
-      <c r="D36">
-        <f t="shared" si="23"/>
-        <v>616770</v>
-      </c>
-      <c r="E36">
-        <f t="shared" si="24"/>
-        <v>1220625</v>
-      </c>
-      <c r="F36">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="G36">
-        <f t="shared" si="26"/>
-        <v>12322640</v>
-      </c>
-      <c r="H36">
-        <f t="shared" si="27"/>
-        <v>1684320</v>
-      </c>
-      <c r="I36">
-        <f t="shared" si="28"/>
-        <v>6121280</v>
-      </c>
-      <c r="J36">
-        <f t="shared" si="29"/>
-        <v>142560</v>
-      </c>
-      <c r="K36">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="L36">
-        <f t="shared" si="31"/>
-        <v>19992</v>
-      </c>
-      <c r="M36">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="N36">
-        <f t="shared" si="33"/>
-        <v>1194624</v>
-      </c>
-      <c r="O36">
-        <f t="shared" si="34"/>
-        <v>898128</v>
-      </c>
-      <c r="P36">
-        <f t="shared" si="35"/>
-        <v>430389</v>
-      </c>
-      <c r="Q36">
-        <f t="shared" si="36"/>
-        <v>8883860</v>
-      </c>
-      <c r="W36">
-        <f t="shared" si="18"/>
-        <v>28160</v>
-      </c>
-      <c r="X36">
-        <f t="shared" si="17"/>
-        <v>5425056</v>
-      </c>
-      <c r="Y36">
-        <f t="shared" si="17"/>
-        <v>313344</v>
-      </c>
-      <c r="Z36">
-        <f t="shared" si="17"/>
-        <v>21612453</v>
-      </c>
-      <c r="AA36">
-        <f t="shared" si="17"/>
-        <v>15127344</v>
-      </c>
-      <c r="AB36">
-        <f t="shared" si="17"/>
-        <v>1627500</v>
-      </c>
-      <c r="AC36">
-        <f t="shared" si="17"/>
-        <v>1776060</v>
-      </c>
-      <c r="AD36">
-        <f t="shared" si="17"/>
-        <v>1115136</v>
-      </c>
-      <c r="AE36">
-        <f t="shared" si="17"/>
-        <v>17136</v>
-      </c>
-      <c r="AF36">
-        <f t="shared" si="17"/>
-        <v>26004536</v>
-      </c>
-      <c r="AG36">
-        <f t="shared" si="17"/>
-        <v>13407768</v>
-      </c>
-      <c r="AH36">
-        <f t="shared" si="17"/>
-        <v>2662848</v>
-      </c>
-      <c r="AI36">
-        <f t="shared" si="17"/>
-        <v>482816</v>
-      </c>
-      <c r="AJ36">
-        <f t="shared" si="17"/>
-        <v>4407260</v>
-      </c>
-      <c r="AK36">
-        <f t="shared" si="17"/>
-        <v>533832</v>
-      </c>
-      <c r="AL36">
-        <f t="shared" si="17"/>
-        <v>6876160</v>
-      </c>
-      <c r="AM36">
-        <f t="shared" si="17"/>
-        <v>6153840</v>
-      </c>
-    </row>
-    <row r="37" spans="1:39">
-      <c r="A37">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="B37">
-        <f t="shared" si="21"/>
-        <v>20400</v>
-      </c>
-      <c r="C37">
-        <f t="shared" si="22"/>
-        <v>7323540</v>
-      </c>
-      <c r="D37">
-        <f t="shared" si="23"/>
-        <v>8969856</v>
-      </c>
-      <c r="E37">
-        <f t="shared" si="24"/>
-        <v>4728570</v>
-      </c>
-      <c r="F37">
-        <f t="shared" si="25"/>
-        <v>455700</v>
-      </c>
-      <c r="G37">
-        <f t="shared" si="26"/>
-        <v>531805</v>
-      </c>
-      <c r="H37">
-        <f t="shared" si="27"/>
-        <v>14916880</v>
-      </c>
-      <c r="I37">
-        <f t="shared" si="28"/>
-        <v>497640</v>
-      </c>
-      <c r="J37">
-        <f t="shared" si="29"/>
-        <v>26321504</v>
-      </c>
-      <c r="K37">
-        <f t="shared" si="30"/>
-        <v>164736</v>
-      </c>
-      <c r="L37">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="M37">
-        <f t="shared" si="32"/>
-        <v>109956</v>
-      </c>
-      <c r="N37">
-        <f t="shared" si="33"/>
-        <v>776736</v>
-      </c>
-      <c r="O37">
-        <f t="shared" si="34"/>
-        <v>1742976</v>
-      </c>
-      <c r="P37">
-        <f t="shared" si="35"/>
-        <v>1496880</v>
-      </c>
-      <c r="Q37">
-        <f t="shared" si="36"/>
-        <v>177480</v>
-      </c>
-      <c r="W37">
-        <f t="shared" si="18"/>
-        <v>140800</v>
-      </c>
-      <c r="X37">
-        <f t="shared" si="17"/>
-        <v>7615944</v>
-      </c>
-      <c r="Y37">
-        <f t="shared" si="17"/>
-        <v>1370880</v>
-      </c>
-      <c r="Z37">
-        <f t="shared" si="17"/>
-        <v>7551339</v>
-      </c>
-      <c r="AA37">
-        <f t="shared" si="17"/>
-        <v>12164256</v>
-      </c>
-      <c r="AB37">
-        <f t="shared" si="17"/>
-        <v>1441500</v>
-      </c>
-      <c r="AC37">
-        <f t="shared" si="17"/>
-        <v>1614600</v>
-      </c>
-      <c r="AD37">
-        <f t="shared" si="17"/>
-        <v>69696</v>
-      </c>
-      <c r="AE37">
-        <f t="shared" si="17"/>
-        <v>181152</v>
-      </c>
-      <c r="AF37">
-        <f t="shared" si="17"/>
-        <v>8310728</v>
-      </c>
-      <c r="AG37">
-        <f t="shared" si="17"/>
-        <v>11525976</v>
-      </c>
-      <c r="AH37">
-        <f t="shared" si="17"/>
-        <v>5908194</v>
-      </c>
-      <c r="AI37">
-        <f t="shared" si="17"/>
-        <v>1448448</v>
-      </c>
-      <c r="AJ37">
-        <f t="shared" si="17"/>
-        <v>14577860</v>
-      </c>
-      <c r="AK37">
-        <f t="shared" si="17"/>
-        <v>1663092</v>
-      </c>
-      <c r="AL37">
-        <f t="shared" si="17"/>
-        <v>1392640</v>
-      </c>
-      <c r="AM37">
-        <f t="shared" ref="AM37:AM38" si="37">Q16*Q17*Q18*Q19</f>
-        <v>4289040</v>
-      </c>
-    </row>
-    <row r="38" spans="1:39">
-      <c r="A38">
-        <f t="shared" si="20"/>
-        <v>6023808</v>
-      </c>
-      <c r="B38">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="C38">
-        <f t="shared" si="22"/>
-        <v>42000</v>
-      </c>
-      <c r="D38">
-        <f t="shared" si="23"/>
-        <v>13679820</v>
-      </c>
-      <c r="E38">
-        <f t="shared" si="24"/>
-        <v>5125632</v>
-      </c>
-      <c r="F38">
-        <f t="shared" si="25"/>
-        <v>1504545</v>
-      </c>
-      <c r="G38">
-        <f t="shared" si="26"/>
-        <v>589372</v>
-      </c>
-      <c r="H38">
-        <f t="shared" si="27"/>
-        <v>977835</v>
-      </c>
-      <c r="I38">
-        <f t="shared" si="28"/>
-        <v>7124480</v>
-      </c>
-      <c r="J38">
-        <f t="shared" si="29"/>
-        <v>530816</v>
-      </c>
-      <c r="K38">
-        <f t="shared" si="30"/>
-        <v>7280416</v>
-      </c>
-      <c r="L38">
-        <f t="shared" si="31"/>
-        <v>1427712</v>
-      </c>
-      <c r="M38">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="N38">
-        <f t="shared" si="33"/>
-        <v>907137</v>
-      </c>
-      <c r="O38">
-        <f t="shared" si="34"/>
-        <v>338256</v>
-      </c>
-      <c r="P38">
-        <f t="shared" si="35"/>
-        <v>10675728</v>
-      </c>
-      <c r="Q38">
-        <f t="shared" si="36"/>
-        <v>7056720</v>
-      </c>
-      <c r="W38">
-        <f t="shared" si="18"/>
-        <v>1600</v>
-      </c>
-      <c r="X38">
-        <f t="shared" ref="X38" si="38">B17*B18*B19*B20</f>
-        <v>14808780</v>
-      </c>
-      <c r="Y38">
-        <f t="shared" ref="Y38" si="39">C17*C18*C19*C20</f>
-        <v>1088640</v>
-      </c>
-      <c r="Z38">
-        <f t="shared" ref="Z38" si="40">D17*D18*D19*D20</f>
-        <v>6162587</v>
-      </c>
-      <c r="AA38">
-        <f t="shared" ref="AA38" si="41">E17*E18*E19*E20</f>
-        <v>17712864</v>
-      </c>
-      <c r="AB38">
-        <f t="shared" ref="AB38" si="42">F17*F18*F19*F20</f>
-        <v>1185750</v>
-      </c>
-      <c r="AC38">
-        <f t="shared" ref="AC38" si="43">G17*G18*G19*G20</f>
-        <v>4359420</v>
-      </c>
-      <c r="AD38">
-        <f t="shared" ref="AD38" si="44">H17*H18*H19*H20</f>
-        <v>66792</v>
-      </c>
-      <c r="AE38">
-        <f t="shared" ref="AE38" si="45">I17*I18*I19*I20</f>
-        <v>966144</v>
-      </c>
-      <c r="AF38">
-        <f t="shared" ref="AF38" si="46">J17*J18*J19*J20</f>
-        <v>16621456</v>
-      </c>
-      <c r="AG38">
-        <f t="shared" ref="AG38" si="47">K17*K18*K19*K20</f>
-        <v>11525976</v>
-      </c>
-      <c r="AH38">
-        <f t="shared" ref="AH38" si="48">L17*L18*L19*L20</f>
-        <v>4232736</v>
-      </c>
-      <c r="AI38">
-        <f t="shared" ref="AI38" si="49">M17*M18*M19*M20</f>
-        <v>1920768</v>
-      </c>
-      <c r="AJ38">
-        <f t="shared" ref="AJ38" si="50">N17*N18*N19*N20</f>
-        <v>11397236</v>
-      </c>
-      <c r="AK38">
-        <f t="shared" ref="AK38" si="51">O17*O18*O19*O20</f>
-        <v>7206732</v>
-      </c>
-      <c r="AL38">
-        <f t="shared" ref="AL38" si="52">P17*P18*P19*P20</f>
-        <v>43520</v>
-      </c>
-      <c r="AM38">
+        <v>331992</v>
+      </c>
+      <c r="Q39">
         <f t="shared" si="37"/>
-        <v>6059120</v>
-      </c>
-    </row>
-    <row r="39" spans="1:39">
-      <c r="A39">
-        <f t="shared" si="20"/>
-        <v>4788480</v>
-      </c>
-      <c r="B39">
-        <f t="shared" si="21"/>
-        <v>21459816</v>
-      </c>
-      <c r="C39">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="D39">
-        <f t="shared" si="23"/>
-        <v>168000</v>
-      </c>
-      <c r="E39">
-        <f t="shared" si="24"/>
-        <v>23451120</v>
-      </c>
-      <c r="F39">
-        <f t="shared" si="25"/>
-        <v>160176</v>
-      </c>
-      <c r="G39">
-        <f t="shared" si="26"/>
-        <v>1977402</v>
-      </c>
-      <c r="H39">
-        <f t="shared" si="27"/>
-        <v>627396</v>
-      </c>
-      <c r="I39">
-        <f t="shared" si="28"/>
-        <v>1393935</v>
-      </c>
-      <c r="J39">
-        <f t="shared" si="29"/>
-        <v>5958656</v>
-      </c>
-      <c r="K39">
-        <f t="shared" si="30"/>
-        <v>503360</v>
-      </c>
-      <c r="L39">
-        <f t="shared" si="31"/>
-        <v>992784</v>
-      </c>
-      <c r="M39">
-        <f t="shared" si="32"/>
-        <v>1903616</v>
-      </c>
-      <c r="N39">
-        <f t="shared" si="33"/>
-        <v>5076540</v>
-      </c>
-      <c r="O39">
-        <f t="shared" si="34"/>
-        <v>4962573</v>
-      </c>
-      <c r="P39">
-        <f t="shared" si="35"/>
-        <v>331992</v>
-      </c>
-      <c r="Q39">
-        <f t="shared" si="36"/>
         <v>30692718</v>
       </c>
     </row>
     <row r="40" spans="1:39">
       <c r="A40">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>4904432</v>
       </c>
       <c r="B40">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>2115840</v>
       </c>
       <c r="C40">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>9580275</v>
       </c>
       <c r="D40">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>15949128</v>
       </c>
       <c r="E40">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>38500</v>
       </c>
       <c r="F40">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>16080768</v>
       </c>
       <c r="G40">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>212064</v>
       </c>
       <c r="H40">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>1599696</v>
       </c>
       <c r="I40">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>1613304</v>
       </c>
       <c r="J40">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>2230296</v>
       </c>
       <c r="K40">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>6229504</v>
       </c>
       <c r="L40">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>331760</v>
       </c>
       <c r="M40">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>858624</v>
       </c>
       <c r="N40">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1730560</v>
       </c>
       <c r="O40">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>5245758</v>
       </c>
       <c r="P40">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>17959788</v>
       </c>
       <c r="Q40">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>206064</v>
       </c>
     </row>
     <row r="41" spans="1:39">
       <c r="A41">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>94464</v>
       </c>
       <c r="B41">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>18585216</v>
       </c>
       <c r="C41">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>793440</v>
       </c>
       <c r="D41">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>2720325</v>
       </c>
       <c r="E41">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>20640048</v>
       </c>
       <c r="F41">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>261800</v>
       </c>
       <c r="G41">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>10606464</v>
       </c>
       <c r="H41">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>446688</v>
       </c>
       <c r="I41">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>1599696</v>
       </c>
       <c r="J41">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>4724676</v>
       </c>
       <c r="K41">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>2046984</v>
       </c>
       <c r="L41">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>3995008</v>
       </c>
       <c r="M41">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>2169200</v>
       </c>
       <c r="N41">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>738816</v>
       </c>
       <c r="O41">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>133120</v>
       </c>
       <c r="P41">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>11108664</v>
       </c>
       <c r="Q41">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>3731904</v>
       </c>
     </row>
     <row r="42" spans="1:39">
       <c r="A42">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>3858624</v>
       </c>
       <c r="B42">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1842048</v>
       </c>
       <c r="C42">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>11079648</v>
       </c>
       <c r="D42">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>8926200</v>
       </c>
       <c r="E42">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>32775</v>
       </c>
       <c r="F42">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>15746016</v>
       </c>
       <c r="G42">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>231880</v>
       </c>
       <c r="H42">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>5249664</v>
       </c>
       <c r="I42">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>1982178</v>
       </c>
       <c r="J42">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>10969344</v>
       </c>
       <c r="K42">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>4188888</v>
       </c>
       <c r="L42">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>2908872</v>
       </c>
       <c r="M42">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>1997504</v>
       </c>
       <c r="N42">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>3118225</v>
       </c>
       <c r="O42">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1619712</v>
       </c>
       <c r="P42">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>25600</v>
       </c>
       <c r="Q42">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>7593264</v>
       </c>
     </row>
     <row r="43" spans="1:39">
       <c r="A43">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>685860</v>
       </c>
       <c r="B43">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>3639384</v>
       </c>
       <c r="C43">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>2609568</v>
       </c>
       <c r="D43">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>8798544</v>
       </c>
       <c r="E43">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>7079400</v>
       </c>
       <c r="F43">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>9200</v>
       </c>
       <c r="G43">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>23365056</v>
       </c>
       <c r="H43">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>382602</v>
       </c>
       <c r="I43">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>3499776</v>
       </c>
       <c r="J43">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>40304286</v>
       </c>
       <c r="K43">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>10253952</v>
       </c>
       <c r="L43">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>6600672</v>
       </c>
       <c r="M43">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>43416</v>
       </c>
       <c r="N43">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>3864736</v>
       </c>
       <c r="O43">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1077205</v>
       </c>
       <c r="P43">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>9043392</v>
       </c>
       <c r="Q43">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>38400</v>
       </c>
     </row>
@@ -5375,12 +5375,1761 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D176"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="B108" sqref="B108"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="34.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <f>2^A1</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <f t="shared" ref="B2:B65" si="0">2^A2</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <f>A3+1</f>
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <f t="shared" ref="A5:A68" si="1">A4+1</f>
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>256</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>512</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>4096</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>8192</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>16384</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>32768</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>65536</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>131072</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>262144</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>524288</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>1048576</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>2097152</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>4194304</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="0"/>
+        <v>8388608</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="0"/>
+        <v>16777216</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="0"/>
+        <v>33554432</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="0"/>
+        <v>67108864</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="0"/>
+        <v>134217728</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="0"/>
+        <v>268435456</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="0"/>
+        <v>536870912</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="0"/>
+        <v>1073741824</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="0"/>
+        <v>2147483648</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="0"/>
+        <v>4294967296</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="0"/>
+        <v>8589934592</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="0"/>
+        <v>17179869184</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="0"/>
+        <v>34359738368</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="0"/>
+        <v>68719476736</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="0"/>
+        <v>137438953472</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="0"/>
+        <v>274877906944</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="0"/>
+        <v>549755813888</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="0"/>
+        <v>1099511627776</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="0"/>
+        <v>2199023255552</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="0"/>
+        <v>4398046511104</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="0"/>
+        <v>8796093022208</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="B44">
+        <f t="shared" si="0"/>
+        <v>17592186044416</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="B45">
+        <f t="shared" si="0"/>
+        <v>35184372088832</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+      <c r="B46">
+        <f t="shared" si="0"/>
+        <v>70368744177664</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47">
+        <f t="shared" si="1"/>
+        <v>47</v>
+      </c>
+      <c r="B47">
+        <f t="shared" si="0"/>
+        <v>140737488355328</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="B48">
+        <f t="shared" si="0"/>
+        <v>281474976710656</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+      <c r="B49">
+        <f t="shared" si="0"/>
+        <v>562949953421312</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="B50">
+        <f t="shared" si="0"/>
+        <v>1125899906842624</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51">
+        <f t="shared" si="1"/>
+        <v>51</v>
+      </c>
+      <c r="B51">
+        <f t="shared" si="0"/>
+        <v>2251799813685248</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
+      <c r="B52">
+        <f t="shared" si="0"/>
+        <v>4503599627370496</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53">
+        <f t="shared" si="1"/>
+        <v>53</v>
+      </c>
+      <c r="B53">
+        <f t="shared" si="0"/>
+        <v>9007199254740992</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+      <c r="B54">
+        <f t="shared" si="0"/>
+        <v>1.8014398509481984E+16</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="B55">
+        <f t="shared" si="0"/>
+        <v>3.6028797018963968E+16</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="B56">
+        <f t="shared" si="0"/>
+        <v>7.2057594037927936E+16</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57">
+        <f t="shared" si="1"/>
+        <v>57</v>
+      </c>
+      <c r="B57">
+        <f t="shared" si="0"/>
+        <v>1.4411518807585587E+17</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58">
+        <f t="shared" si="1"/>
+        <v>58</v>
+      </c>
+      <c r="B58">
+        <f t="shared" si="0"/>
+        <v>2.8823037615171174E+17</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59">
+        <f t="shared" si="1"/>
+        <v>59</v>
+      </c>
+      <c r="B59">
+        <f t="shared" si="0"/>
+        <v>5.7646075230342349E+17</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="B60">
+        <f t="shared" si="0"/>
+        <v>1.152921504606847E+18</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61">
+        <f t="shared" si="1"/>
+        <v>61</v>
+      </c>
+      <c r="B61">
+        <f t="shared" si="0"/>
+        <v>2.305843009213694E+18</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62">
+        <f t="shared" si="1"/>
+        <v>62</v>
+      </c>
+      <c r="B62">
+        <f t="shared" si="0"/>
+        <v>4.6116860184273879E+18</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63">
+        <f t="shared" si="1"/>
+        <v>63</v>
+      </c>
+      <c r="B63">
+        <f t="shared" si="0"/>
+        <v>9.2233720368547758E+18</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+      <c r="B64">
+        <f t="shared" si="0"/>
+        <v>1.8446744073709552E+19</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="B65">
+        <f t="shared" si="0"/>
+        <v>3.6893488147419103E+19</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66">
+        <f t="shared" si="1"/>
+        <v>66</v>
+      </c>
+      <c r="B66">
+        <f t="shared" ref="B66:B129" si="2">2^A66</f>
+        <v>7.3786976294838206E+19</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67">
+        <f t="shared" si="1"/>
+        <v>67</v>
+      </c>
+      <c r="B67">
+        <f t="shared" si="2"/>
+        <v>1.4757395258967641E+20</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="B68">
+        <f t="shared" si="2"/>
+        <v>2.9514790517935283E+20</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69">
+        <f t="shared" ref="A69:A132" si="3">A68+1</f>
+        <v>69</v>
+      </c>
+      <c r="B69">
+        <f t="shared" si="2"/>
+        <v>5.9029581035870565E+20</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+      <c r="B70">
+        <f t="shared" si="2"/>
+        <v>1.1805916207174113E+21</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71">
+        <f t="shared" si="3"/>
+        <v>71</v>
+      </c>
+      <c r="B71">
+        <f t="shared" si="2"/>
+        <v>2.3611832414348226E+21</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72">
+        <f t="shared" si="3"/>
+        <v>72</v>
+      </c>
+      <c r="B72">
+        <f t="shared" si="2"/>
+        <v>4.7223664828696452E+21</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73">
+        <f t="shared" si="3"/>
+        <v>73</v>
+      </c>
+      <c r="B73">
+        <f t="shared" si="2"/>
+        <v>9.4447329657392904E+21</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74">
+        <f t="shared" si="3"/>
+        <v>74</v>
+      </c>
+      <c r="B74">
+        <f t="shared" si="2"/>
+        <v>1.8889465931478581E+22</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75">
+        <f t="shared" si="3"/>
+        <v>75</v>
+      </c>
+      <c r="B75">
+        <f t="shared" si="2"/>
+        <v>3.7778931862957162E+22</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76">
+        <f t="shared" si="3"/>
+        <v>76</v>
+      </c>
+      <c r="B76">
+        <f t="shared" si="2"/>
+        <v>7.5557863725914323E+22</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77">
+        <f t="shared" si="3"/>
+        <v>77</v>
+      </c>
+      <c r="B77">
+        <f t="shared" si="2"/>
+        <v>1.5111572745182865E+23</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78">
+        <f t="shared" si="3"/>
+        <v>78</v>
+      </c>
+      <c r="B78">
+        <f t="shared" si="2"/>
+        <v>3.0223145490365729E+23</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79">
+        <f t="shared" si="3"/>
+        <v>79</v>
+      </c>
+      <c r="B79">
+        <f t="shared" si="2"/>
+        <v>6.0446290980731459E+23</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80">
+        <f t="shared" si="3"/>
+        <v>80</v>
+      </c>
+      <c r="B80">
+        <f t="shared" si="2"/>
+        <v>1.2089258196146292E+24</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81">
+        <f t="shared" si="3"/>
+        <v>81</v>
+      </c>
+      <c r="B81">
+        <f t="shared" si="2"/>
+        <v>2.4178516392292583E+24</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82">
+        <f t="shared" si="3"/>
+        <v>82</v>
+      </c>
+      <c r="B82">
+        <f t="shared" si="2"/>
+        <v>4.8357032784585167E+24</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83">
+        <f t="shared" si="3"/>
+        <v>83</v>
+      </c>
+      <c r="B83">
+        <f t="shared" si="2"/>
+        <v>9.6714065569170334E+24</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84">
+        <f t="shared" si="3"/>
+        <v>84</v>
+      </c>
+      <c r="B84">
+        <f t="shared" si="2"/>
+        <v>1.9342813113834067E+25</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85">
+        <f t="shared" si="3"/>
+        <v>85</v>
+      </c>
+      <c r="B85">
+        <f t="shared" si="2"/>
+        <v>3.8685626227668134E+25</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86">
+        <f t="shared" si="3"/>
+        <v>86</v>
+      </c>
+      <c r="B86">
+        <f t="shared" si="2"/>
+        <v>7.7371252455336267E+25</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87">
+        <f t="shared" si="3"/>
+        <v>87</v>
+      </c>
+      <c r="B87">
+        <f t="shared" si="2"/>
+        <v>1.5474250491067253E+26</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88">
+        <f t="shared" si="3"/>
+        <v>88</v>
+      </c>
+      <c r="B88">
+        <f t="shared" si="2"/>
+        <v>3.0948500982134507E+26</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89">
+        <f t="shared" si="3"/>
+        <v>89</v>
+      </c>
+      <c r="B89">
+        <f t="shared" si="2"/>
+        <v>6.1897001964269014E+26</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+      <c r="B90">
+        <f t="shared" si="2"/>
+        <v>1.2379400392853803E+27</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91">
+        <f t="shared" si="3"/>
+        <v>91</v>
+      </c>
+      <c r="B91">
+        <f t="shared" si="2"/>
+        <v>2.4758800785707605E+27</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92">
+        <f t="shared" si="3"/>
+        <v>92</v>
+      </c>
+      <c r="B92">
+        <f t="shared" si="2"/>
+        <v>4.9517601571415211E+27</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93">
+        <f t="shared" si="3"/>
+        <v>93</v>
+      </c>
+      <c r="B93">
+        <f t="shared" si="2"/>
+        <v>9.9035203142830422E+27</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94">
+        <f t="shared" si="3"/>
+        <v>94</v>
+      </c>
+      <c r="B94">
+        <f t="shared" si="2"/>
+        <v>1.9807040628566084E+28</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95">
+        <f t="shared" si="3"/>
+        <v>95</v>
+      </c>
+      <c r="B95">
+        <f t="shared" si="2"/>
+        <v>3.9614081257132169E+28</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96">
+        <f t="shared" si="3"/>
+        <v>96</v>
+      </c>
+      <c r="B96">
+        <f t="shared" si="2"/>
+        <v>7.9228162514264338E+28</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97">
+        <f t="shared" si="3"/>
+        <v>97</v>
+      </c>
+      <c r="B97">
+        <f t="shared" si="2"/>
+        <v>1.5845632502852868E+29</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98">
+        <f t="shared" si="3"/>
+        <v>98</v>
+      </c>
+      <c r="B98">
+        <f t="shared" si="2"/>
+        <v>3.1691265005705735E+29</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99">
+        <f t="shared" si="3"/>
+        <v>99</v>
+      </c>
+      <c r="B99">
+        <f t="shared" si="2"/>
+        <v>6.338253001141147E+29</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="B100">
+        <f t="shared" si="2"/>
+        <v>1.2676506002282294E+30</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101">
+        <f t="shared" si="3"/>
+        <v>101</v>
+      </c>
+      <c r="B101">
+        <f t="shared" si="2"/>
+        <v>2.5353012004564588E+30</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102">
+        <f t="shared" si="3"/>
+        <v>102</v>
+      </c>
+      <c r="B102">
+        <f t="shared" si="2"/>
+        <v>5.0706024009129176E+30</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103">
+        <f t="shared" si="3"/>
+        <v>103</v>
+      </c>
+      <c r="B103">
+        <f t="shared" si="2"/>
+        <v>1.0141204801825835E+31</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104">
+        <f t="shared" si="3"/>
+        <v>104</v>
+      </c>
+      <c r="B104">
+        <f t="shared" si="2"/>
+        <v>2.028240960365167E+31</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105">
+        <f t="shared" si="3"/>
+        <v>105</v>
+      </c>
+      <c r="B105">
+        <f t="shared" si="2"/>
+        <v>4.0564819207303341E+31</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106">
+        <f t="shared" si="3"/>
+        <v>106</v>
+      </c>
+      <c r="B106">
+        <f t="shared" si="2"/>
+        <v>8.1129638414606682E+31</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107">
+        <f t="shared" si="3"/>
+        <v>107</v>
+      </c>
+      <c r="B107">
+        <f t="shared" si="2"/>
+        <v>1.6225927682921336E+32</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108">
+        <f t="shared" si="3"/>
+        <v>108</v>
+      </c>
+      <c r="B108">
+        <f t="shared" si="2"/>
+        <v>3.2451855365842673E+32</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109">
+        <f t="shared" si="3"/>
+        <v>109</v>
+      </c>
+      <c r="B109">
+        <f t="shared" si="2"/>
+        <v>6.4903710731685345E+32</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110">
+        <f t="shared" si="3"/>
+        <v>110</v>
+      </c>
+      <c r="B110">
+        <f t="shared" si="2"/>
+        <v>1.2980742146337069E+33</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111">
+        <f t="shared" si="3"/>
+        <v>111</v>
+      </c>
+      <c r="B111">
+        <f t="shared" si="2"/>
+        <v>2.5961484292674138E+33</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112">
+        <f t="shared" si="3"/>
+        <v>112</v>
+      </c>
+      <c r="B112">
+        <f t="shared" si="2"/>
+        <v>5.1922968585348276E+33</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113">
+        <f t="shared" si="3"/>
+        <v>113</v>
+      </c>
+      <c r="B113">
+        <f t="shared" si="2"/>
+        <v>1.0384593717069655E+34</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114">
+        <f t="shared" si="3"/>
+        <v>114</v>
+      </c>
+      <c r="B114">
+        <f t="shared" si="2"/>
+        <v>2.0769187434139311E+34</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115">
+        <f t="shared" si="3"/>
+        <v>115</v>
+      </c>
+      <c r="B115">
+        <f t="shared" si="2"/>
+        <v>4.1538374868278621E+34</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116">
+        <f t="shared" si="3"/>
+        <v>116</v>
+      </c>
+      <c r="B116">
+        <f t="shared" si="2"/>
+        <v>8.3076749736557242E+34</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117">
+        <f t="shared" si="3"/>
+        <v>117</v>
+      </c>
+      <c r="B117">
+        <f t="shared" si="2"/>
+        <v>1.6615349947311448E+35</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118">
+        <f t="shared" si="3"/>
+        <v>118</v>
+      </c>
+      <c r="B118">
+        <f t="shared" si="2"/>
+        <v>3.3230699894622897E+35</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119">
+        <f t="shared" si="3"/>
+        <v>119</v>
+      </c>
+      <c r="B119">
+        <f t="shared" si="2"/>
+        <v>6.6461399789245794E+35</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120">
+        <f t="shared" si="3"/>
+        <v>120</v>
+      </c>
+      <c r="B120">
+        <f t="shared" si="2"/>
+        <v>1.3292279957849159E+36</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121">
+        <f t="shared" si="3"/>
+        <v>121</v>
+      </c>
+      <c r="B121">
+        <f t="shared" si="2"/>
+        <v>2.6584559915698317E+36</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122">
+        <f t="shared" si="3"/>
+        <v>122</v>
+      </c>
+      <c r="B122">
+        <f t="shared" si="2"/>
+        <v>5.3169119831396635E+36</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123">
+        <f t="shared" si="3"/>
+        <v>123</v>
+      </c>
+      <c r="B123">
+        <f t="shared" si="2"/>
+        <v>1.0633823966279327E+37</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124">
+        <f t="shared" si="3"/>
+        <v>124</v>
+      </c>
+      <c r="B124">
+        <f t="shared" si="2"/>
+        <v>2.1267647932558654E+37</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125">
+        <f t="shared" si="3"/>
+        <v>125</v>
+      </c>
+      <c r="B125">
+        <f t="shared" si="2"/>
+        <v>4.2535295865117308E+37</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126">
+        <f t="shared" si="3"/>
+        <v>126</v>
+      </c>
+      <c r="B126">
+        <f t="shared" si="2"/>
+        <v>8.5070591730234616E+37</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127">
+        <f t="shared" si="3"/>
+        <v>127</v>
+      </c>
+      <c r="B127">
+        <f t="shared" si="2"/>
+        <v>1.7014118346046923E+38</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128">
+        <f t="shared" si="3"/>
+        <v>128</v>
+      </c>
+      <c r="B128">
+        <f t="shared" si="2"/>
+        <v>3.4028236692093846E+38</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129">
+        <f t="shared" si="3"/>
+        <v>129</v>
+      </c>
+      <c r="B129">
+        <f t="shared" si="2"/>
+        <v>6.8056473384187693E+38</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130">
+        <f t="shared" si="3"/>
+        <v>130</v>
+      </c>
+      <c r="B130">
+        <f t="shared" ref="B130:B174" si="4">2^A130</f>
+        <v>1.3611294676837539E+39</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131">
+        <f t="shared" si="3"/>
+        <v>131</v>
+      </c>
+      <c r="B131">
+        <f t="shared" si="4"/>
+        <v>2.7222589353675077E+39</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132">
+        <f t="shared" si="3"/>
+        <v>132</v>
+      </c>
+      <c r="B132">
+        <f t="shared" si="4"/>
+        <v>5.4445178707350154E+39</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133">
+        <f t="shared" ref="A133:A174" si="5">A132+1</f>
+        <v>133</v>
+      </c>
+      <c r="B133">
+        <f t="shared" si="4"/>
+        <v>1.0889035741470031E+40</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134">
+        <f t="shared" si="5"/>
+        <v>134</v>
+      </c>
+      <c r="B134">
+        <f t="shared" si="4"/>
+        <v>2.1778071482940062E+40</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135">
+        <f t="shared" si="5"/>
+        <v>135</v>
+      </c>
+      <c r="B135">
+        <f t="shared" si="4"/>
+        <v>4.3556142965880123E+40</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136">
+        <f t="shared" si="5"/>
+        <v>136</v>
+      </c>
+      <c r="B136">
+        <f t="shared" si="4"/>
+        <v>8.7112285931760247E+40</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137">
+        <f t="shared" si="5"/>
+        <v>137</v>
+      </c>
+      <c r="B137">
+        <f t="shared" si="4"/>
+        <v>1.7422457186352049E+41</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138">
+        <f t="shared" si="5"/>
+        <v>138</v>
+      </c>
+      <c r="B138">
+        <f t="shared" si="4"/>
+        <v>3.4844914372704099E+41</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139">
+        <f t="shared" si="5"/>
+        <v>139</v>
+      </c>
+      <c r="B139">
+        <f t="shared" si="4"/>
+        <v>6.9689828745408197E+41</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140">
+        <f t="shared" si="5"/>
+        <v>140</v>
+      </c>
+      <c r="B140">
+        <f t="shared" si="4"/>
+        <v>1.3937965749081639E+42</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141">
+        <f t="shared" si="5"/>
+        <v>141</v>
+      </c>
+      <c r="B141">
+        <f t="shared" si="4"/>
+        <v>2.7875931498163279E+42</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142">
+        <f t="shared" si="5"/>
+        <v>142</v>
+      </c>
+      <c r="B142">
+        <f t="shared" si="4"/>
+        <v>5.5751862996326558E+42</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143">
+        <f t="shared" si="5"/>
+        <v>143</v>
+      </c>
+      <c r="B143">
+        <f t="shared" si="4"/>
+        <v>1.1150372599265312E+43</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144">
+        <f t="shared" si="5"/>
+        <v>144</v>
+      </c>
+      <c r="B144">
+        <f t="shared" si="4"/>
+        <v>2.2300745198530623E+43</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145">
+        <f t="shared" si="5"/>
+        <v>145</v>
+      </c>
+      <c r="B145">
+        <f t="shared" si="4"/>
+        <v>4.4601490397061246E+43</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146">
+        <f t="shared" si="5"/>
+        <v>146</v>
+      </c>
+      <c r="B146">
+        <f t="shared" si="4"/>
+        <v>8.9202980794122493E+43</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147">
+        <f t="shared" si="5"/>
+        <v>147</v>
+      </c>
+      <c r="B147">
+        <f t="shared" si="4"/>
+        <v>1.7840596158824499E+44</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148">
+        <f t="shared" si="5"/>
+        <v>148</v>
+      </c>
+      <c r="B148">
+        <f t="shared" si="4"/>
+        <v>3.5681192317648997E+44</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149">
+        <f t="shared" si="5"/>
+        <v>149</v>
+      </c>
+      <c r="B149">
+        <f t="shared" si="4"/>
+        <v>7.1362384635297994E+44</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150">
+        <f t="shared" si="5"/>
+        <v>150</v>
+      </c>
+      <c r="B150">
+        <f t="shared" si="4"/>
+        <v>1.4272476927059599E+45</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151">
+        <f t="shared" si="5"/>
+        <v>151</v>
+      </c>
+      <c r="B151">
+        <f t="shared" si="4"/>
+        <v>2.8544953854119198E+45</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152">
+        <f t="shared" si="5"/>
+        <v>152</v>
+      </c>
+      <c r="B152">
+        <f t="shared" si="4"/>
+        <v>5.7089907708238395E+45</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153">
+        <f t="shared" si="5"/>
+        <v>153</v>
+      </c>
+      <c r="B153">
+        <f t="shared" si="4"/>
+        <v>1.1417981541647679E+46</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154">
+        <f t="shared" si="5"/>
+        <v>154</v>
+      </c>
+      <c r="B154">
+        <f t="shared" si="4"/>
+        <v>2.2835963083295358E+46</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155">
+        <f t="shared" si="5"/>
+        <v>155</v>
+      </c>
+      <c r="B155">
+        <f t="shared" si="4"/>
+        <v>4.5671926166590716E+46</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156">
+        <f t="shared" si="5"/>
+        <v>156</v>
+      </c>
+      <c r="B156">
+        <f t="shared" si="4"/>
+        <v>9.1343852333181432E+46</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157">
+        <f t="shared" si="5"/>
+        <v>157</v>
+      </c>
+      <c r="B157">
+        <f t="shared" si="4"/>
+        <v>1.8268770466636286E+47</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158">
+        <f t="shared" si="5"/>
+        <v>158</v>
+      </c>
+      <c r="B158">
+        <f t="shared" si="4"/>
+        <v>3.6537540933272573E+47</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159">
+        <f t="shared" si="5"/>
+        <v>159</v>
+      </c>
+      <c r="B159">
+        <f t="shared" si="4"/>
+        <v>7.3075081866545146E+47</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160">
+        <f t="shared" si="5"/>
+        <v>160</v>
+      </c>
+      <c r="B160">
+        <f t="shared" si="4"/>
+        <v>1.4615016373309029E+48</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161">
+        <f t="shared" si="5"/>
+        <v>161</v>
+      </c>
+      <c r="B161">
+        <f t="shared" si="4"/>
+        <v>2.9230032746618058E+48</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162">
+        <f t="shared" si="5"/>
+        <v>162</v>
+      </c>
+      <c r="B162">
+        <f t="shared" si="4"/>
+        <v>5.8460065493236117E+48</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163">
+        <f t="shared" si="5"/>
+        <v>163</v>
+      </c>
+      <c r="B163">
+        <f t="shared" si="4"/>
+        <v>1.1692013098647223E+49</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164">
+        <f t="shared" si="5"/>
+        <v>164</v>
+      </c>
+      <c r="B164">
+        <f t="shared" si="4"/>
+        <v>2.3384026197294447E+49</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165">
+        <f t="shared" si="5"/>
+        <v>165</v>
+      </c>
+      <c r="B165">
+        <f t="shared" si="4"/>
+        <v>4.6768052394588893E+49</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166">
+        <f t="shared" si="5"/>
+        <v>166</v>
+      </c>
+      <c r="B166">
+        <f t="shared" si="4"/>
+        <v>9.3536104789177787E+49</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167">
+        <f t="shared" si="5"/>
+        <v>167</v>
+      </c>
+      <c r="B167">
+        <f t="shared" si="4"/>
+        <v>1.8707220957835557E+50</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168">
+        <f t="shared" si="5"/>
+        <v>168</v>
+      </c>
+      <c r="B168">
+        <f t="shared" si="4"/>
+        <v>3.7414441915671115E+50</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169">
+        <f t="shared" si="5"/>
+        <v>169</v>
+      </c>
+      <c r="B169">
+        <f t="shared" si="4"/>
+        <v>7.4828883831342229E+50</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170">
+        <f t="shared" si="5"/>
+        <v>170</v>
+      </c>
+      <c r="B170">
+        <f t="shared" si="4"/>
+        <v>1.4965776766268446E+51</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171">
+        <f t="shared" si="5"/>
+        <v>171</v>
+      </c>
+      <c r="B171">
+        <f t="shared" si="4"/>
+        <v>2.9931553532536892E+51</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172">
+        <f t="shared" si="5"/>
+        <v>172</v>
+      </c>
+      <c r="B172">
+        <f t="shared" si="4"/>
+        <v>5.9863107065073784E+51</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173">
+        <f t="shared" si="5"/>
+        <v>173</v>
+      </c>
+      <c r="B173">
+        <f t="shared" si="4"/>
+        <v>1.1972621413014757E+52</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174">
+        <f t="shared" si="5"/>
+        <v>174</v>
+      </c>
+      <c r="B174">
+        <f t="shared" si="4"/>
+        <v>2.3945242826029513E+52</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="D176">
+        <f>1123*0.75</f>
+        <v>842.25</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
